--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_100ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_100ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4227,28 +4227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>26120.8571367415</v>
+        <v>26474.69357713353</v>
       </c>
       <c r="AB2" t="n">
-        <v>35739.70910537861</v>
+        <v>36223.84373328506</v>
       </c>
       <c r="AC2" t="n">
-        <v>32328.76142935654</v>
+        <v>32766.6909278628</v>
       </c>
       <c r="AD2" t="n">
-        <v>26120857.1367415</v>
+        <v>26474693.57713353</v>
       </c>
       <c r="AE2" t="n">
-        <v>35739709.10537861</v>
+        <v>36223843.73328506</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.129220969990696e-07</v>
+        <v>5.290103309826151e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>65</v>
+        <v>64.73750000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>32328761.42935654</v>
+        <v>32766690.9278628</v>
       </c>
     </row>
     <row r="3">
@@ -4333,28 +4333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>8588.508281387705</v>
+        <v>8765.469261519558</v>
       </c>
       <c r="AB3" t="n">
-        <v>11751.17592883941</v>
+        <v>11993.30174882328</v>
       </c>
       <c r="AC3" t="n">
-        <v>10629.66019106954</v>
+        <v>10848.67786261986</v>
       </c>
       <c r="AD3" t="n">
-        <v>8588508.281387705</v>
+        <v>8765469.261519559</v>
       </c>
       <c r="AE3" t="n">
-        <v>11751175.92883941</v>
+        <v>11993301.74882328</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.912695846793608e-07</v>
+        <v>9.995705694510671e-07</v>
       </c>
       <c r="AG3" t="n">
-        <v>35</v>
+        <v>34.27222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>10629660.19106954</v>
+        <v>10848677.86261986</v>
       </c>
     </row>
     <row r="4">
@@ -4439,28 +4439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>6547.369000916095</v>
+        <v>6703.415671784215</v>
       </c>
       <c r="AB4" t="n">
-        <v>8958.399116588258</v>
+        <v>9171.909055963282</v>
       </c>
       <c r="AC4" t="n">
-        <v>8103.422078092863</v>
+        <v>8296.554928517009</v>
       </c>
       <c r="AD4" t="n">
-        <v>6547369.000916095</v>
+        <v>6703415.671784216</v>
       </c>
       <c r="AE4" t="n">
-        <v>8958399.116588257</v>
+        <v>9171909.055963282</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.93972221643158e-07</v>
+        <v>1.173194472953054e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.19722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>8103422.078092863</v>
+        <v>8296554.928517009</v>
       </c>
     </row>
     <row r="5">
@@ -4545,28 +4545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>5736.543611348383</v>
+        <v>5882.175798011922</v>
       </c>
       <c r="AB5" t="n">
-        <v>7848.992047490058</v>
+        <v>8048.252430121759</v>
       </c>
       <c r="AC5" t="n">
-        <v>7099.895262606838</v>
+        <v>7280.138513983864</v>
       </c>
       <c r="AD5" t="n">
-        <v>5736543.611348383</v>
+        <v>5882175.798011922</v>
       </c>
       <c r="AE5" t="n">
-        <v>7848992.047490058</v>
+        <v>8048252.430121759</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.485329975301754e-07</v>
+        <v>1.265432171688484e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.06944444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>7099895.262606838</v>
+        <v>7280138.513983864</v>
       </c>
     </row>
     <row r="6">
@@ -4651,28 +4651,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>5272.465190746101</v>
+        <v>5418.09728790109</v>
       </c>
       <c r="AB6" t="n">
-        <v>7214.019478727024</v>
+        <v>7413.279738889175</v>
       </c>
       <c r="AC6" t="n">
-        <v>6525.523584616974</v>
+        <v>6705.766725212772</v>
       </c>
       <c r="AD6" t="n">
-        <v>5272465.190746102</v>
+        <v>5418097.28790109</v>
       </c>
       <c r="AE6" t="n">
-        <v>7214019.478727024</v>
+        <v>7413279.738889175</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.82524069138932e-07</v>
+        <v>1.322895764750931e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.89027777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>6525523.584616974</v>
+        <v>6705766.725212772</v>
       </c>
     </row>
     <row r="7">
@@ -4757,28 +4757,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4969.458717737458</v>
+        <v>5104.676420196416</v>
       </c>
       <c r="AB7" t="n">
-        <v>6799.43265465443</v>
+        <v>6984.443480542806</v>
       </c>
       <c r="AC7" t="n">
-        <v>6150.504345157621</v>
+        <v>6317.857997487529</v>
       </c>
       <c r="AD7" t="n">
-        <v>4969458.717737458</v>
+        <v>5104676.420196416</v>
       </c>
       <c r="AE7" t="n">
-        <v>6799432.65465443</v>
+        <v>6984443.480542806</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.063032308223112e-07</v>
+        <v>1.363095617408351e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.12916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>6150504.345157621</v>
+        <v>6317857.997487529</v>
       </c>
     </row>
     <row r="8">
@@ -4863,28 +4863,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>4737.690311416482</v>
+        <v>4872.993265221461</v>
       </c>
       <c r="AB8" t="n">
-        <v>6482.316896225603</v>
+        <v>6667.444366766627</v>
       </c>
       <c r="AC8" t="n">
-        <v>5863.653669638491</v>
+        <v>6031.11283421911</v>
       </c>
       <c r="AD8" t="n">
-        <v>4737690.311416482</v>
+        <v>4872993.265221461</v>
       </c>
       <c r="AE8" t="n">
-        <v>6482316.896225603</v>
+        <v>6667444.366766627</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.233717088404423e-07</v>
+        <v>1.39195072637104e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.60972222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>5863653.669638491</v>
+        <v>6031112.83421911</v>
       </c>
     </row>
     <row r="9">
@@ -4969,28 +4969,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>4556.812425550129</v>
+        <v>4681.700984659079</v>
       </c>
       <c r="AB9" t="n">
-        <v>6234.831793014107</v>
+        <v>6405.709829281354</v>
       </c>
       <c r="AC9" t="n">
-        <v>5639.788197329986</v>
+        <v>5794.357873644711</v>
       </c>
       <c r="AD9" t="n">
-        <v>4556812.425550129</v>
+        <v>4681700.984659079</v>
       </c>
       <c r="AE9" t="n">
-        <v>6234831.793014107</v>
+        <v>6405709.829281354</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.360636540334116e-07</v>
+        <v>1.413407089445859e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.23611111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>5639788.197329986</v>
+        <v>5794357.873644711</v>
       </c>
     </row>
     <row r="10">
@@ -5075,28 +5075,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>4392.776658380572</v>
+        <v>4527.99427133098</v>
       </c>
       <c r="AB10" t="n">
-        <v>6010.390819625401</v>
+        <v>6195.401523044228</v>
       </c>
       <c r="AC10" t="n">
-        <v>5436.767555436623</v>
+        <v>5604.121096985303</v>
       </c>
       <c r="AD10" t="n">
-        <v>4392776.658380573</v>
+        <v>4527994.271330981</v>
       </c>
       <c r="AE10" t="n">
-        <v>6010390.819625401</v>
+        <v>6195401.523044229</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.464214483862946e-07</v>
+        <v>1.430917454713815e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23.9375</v>
       </c>
       <c r="AH10" t="n">
-        <v>5436767.555436623</v>
+        <v>5604121.096985303</v>
       </c>
     </row>
     <row r="11">
@@ -5181,28 +5181,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>4247.445700741171</v>
+        <v>4372.419511196142</v>
       </c>
       <c r="AB11" t="n">
-        <v>5811.542591833815</v>
+        <v>5982.537272753712</v>
       </c>
       <c r="AC11" t="n">
-        <v>5256.897123420232</v>
+        <v>5411.572311985669</v>
       </c>
       <c r="AD11" t="n">
-        <v>4247445.700741171</v>
+        <v>4372419.511196142</v>
       </c>
       <c r="AE11" t="n">
-        <v>5811542.591833815</v>
+        <v>5982537.272753713</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.547368607541019e-07</v>
+        <v>1.444975071900765e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>24</v>
+        <v>23.70277777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>5256897.123420232</v>
+        <v>5411572.31198567</v>
       </c>
     </row>
     <row r="12">
@@ -5287,28 +5287,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>4114.364062871226</v>
+        <v>4239.337873326195</v>
       </c>
       <c r="AB12" t="n">
-        <v>5629.454423752646</v>
+        <v>5800.449104672542</v>
       </c>
       <c r="AC12" t="n">
-        <v>5092.187194538388</v>
+        <v>5246.862383103825</v>
       </c>
       <c r="AD12" t="n">
-        <v>4114364.062871225</v>
+        <v>4239337.873326195</v>
       </c>
       <c r="AE12" t="n">
-        <v>5629454.423752646</v>
+        <v>5800449.104672543</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.62176966556877e-07</v>
+        <v>1.457552939910142e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>23.50138888888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>5092187.194538388</v>
+        <v>5246862.383103825</v>
       </c>
     </row>
     <row r="13">
@@ -5393,28 +5393,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>4018.651694565092</v>
+        <v>4143.45491281947</v>
       </c>
       <c r="AB13" t="n">
-        <v>5498.496538904508</v>
+        <v>5669.25780804956</v>
       </c>
       <c r="AC13" t="n">
-        <v>4973.727746419616</v>
+        <v>5128.191799702402</v>
       </c>
       <c r="AD13" t="n">
-        <v>4018651.694565092</v>
+        <v>4143454.91281947</v>
       </c>
       <c r="AE13" t="n">
-        <v>5498496.538904509</v>
+        <v>5669257.80804956</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.668452682370496e-07</v>
+        <v>1.465444935523869e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>23.375</v>
       </c>
       <c r="AH13" t="n">
-        <v>4973727.746419616</v>
+        <v>5128191.799702402</v>
       </c>
     </row>
     <row r="14">
@@ -5499,28 +5499,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>3989.931308711919</v>
+        <v>4114.734526966297</v>
       </c>
       <c r="AB14" t="n">
-        <v>5459.200039926195</v>
+        <v>5629.961309071246</v>
       </c>
       <c r="AC14" t="n">
-        <v>4938.181650150813</v>
+        <v>5092.645703433598</v>
       </c>
       <c r="AD14" t="n">
-        <v>3989931.308711919</v>
+        <v>4114734.526966297</v>
       </c>
       <c r="AE14" t="n">
-        <v>5459200.039926196</v>
+        <v>5629961.309071247</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.68449996939609e-07</v>
+        <v>1.468157809016088e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>24</v>
+        <v>23.33194444444445</v>
       </c>
       <c r="AH14" t="n">
-        <v>4938181.650150813</v>
+        <v>5092645.703433598</v>
       </c>
     </row>
     <row r="15">
@@ -5605,28 +5605,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>3999.964139307427</v>
+        <v>4124.767357561806</v>
       </c>
       <c r="AB15" t="n">
-        <v>5472.927401364217</v>
+        <v>5643.688670509267</v>
       </c>
       <c r="AC15" t="n">
-        <v>4950.598891479662</v>
+        <v>5105.062944762448</v>
       </c>
       <c r="AD15" t="n">
-        <v>3999964.139307427</v>
+        <v>4124767.357561805</v>
       </c>
       <c r="AE15" t="n">
-        <v>5472927.401364218</v>
+        <v>5643688.670509268</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.688876502221251e-07</v>
+        <v>1.468897683604874e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>24</v>
+        <v>23.32083333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>4950598.891479662</v>
+        <v>5105062.944762448</v>
       </c>
     </row>
   </sheetData>
@@ -5902,28 +5902,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>15614.58611347821</v>
+        <v>15886.77542269872</v>
       </c>
       <c r="AB2" t="n">
-        <v>21364.56558738365</v>
+        <v>21736.987008404</v>
       </c>
       <c r="AC2" t="n">
-        <v>19325.56143307907</v>
+        <v>19662.43947637398</v>
       </c>
       <c r="AD2" t="n">
-        <v>15614586.11347821</v>
+        <v>15886775.42269872</v>
       </c>
       <c r="AE2" t="n">
-        <v>21364565.58738365</v>
+        <v>21736987.008404</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.119990398454486e-07</v>
+        <v>7.134962322960171e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.88472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>19325561.43307907</v>
+        <v>19662439.47637398</v>
       </c>
     </row>
     <row r="3">
@@ -6008,28 +6008,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>6683.542803999631</v>
+        <v>6844.821297300801</v>
       </c>
       <c r="AB3" t="n">
-        <v>9144.718121531359</v>
+        <v>9365.386471170999</v>
       </c>
       <c r="AC3" t="n">
-        <v>8271.959058704557</v>
+        <v>8471.567130764553</v>
       </c>
       <c r="AD3" t="n">
-        <v>6683542.803999632</v>
+        <v>6844821.297300802</v>
       </c>
       <c r="AE3" t="n">
-        <v>9144718.12153136</v>
+        <v>9365386.471170999</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.679515569069434e-07</v>
+        <v>1.156752499685777e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.37916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>8271959.058704556</v>
+        <v>8471567.130764553</v>
       </c>
     </row>
     <row r="4">
@@ -6114,28 +6114,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>5300.689912859815</v>
+        <v>5441.957862673858</v>
       </c>
       <c r="AB4" t="n">
-        <v>7252.63778870987</v>
+        <v>7445.926829947543</v>
       </c>
       <c r="AC4" t="n">
-        <v>6560.456217296193</v>
+        <v>6735.29802372101</v>
       </c>
       <c r="AD4" t="n">
-        <v>5300689.912859815</v>
+        <v>5441957.862673857</v>
       </c>
       <c r="AE4" t="n">
-        <v>7252637.78870987</v>
+        <v>7445926.829947543</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.609154428207882e-07</v>
+        <v>1.317746521332058e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.54722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>6560456.217296193</v>
+        <v>6735298.02372101</v>
       </c>
     </row>
     <row r="5">
@@ -6220,28 +6220,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4704.03926372913</v>
+        <v>4845.136531834029</v>
       </c>
       <c r="AB5" t="n">
-        <v>6436.274048200318</v>
+        <v>6629.329555193598</v>
       </c>
       <c r="AC5" t="n">
-        <v>5822.005086407198</v>
+        <v>5996.635646768138</v>
       </c>
       <c r="AD5" t="n">
-        <v>4704039.26372913</v>
+        <v>4845136.531834029</v>
       </c>
       <c r="AE5" t="n">
-        <v>6436274.048200319</v>
+        <v>6629329.555193598</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.093592859674509e-07</v>
+        <v>1.40164113326137e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.89583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>5822005.086407199</v>
+        <v>5996635.646768138</v>
       </c>
     </row>
     <row r="6">
@@ -6326,28 +6326,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4346.885228578963</v>
+        <v>4477.977269694572</v>
       </c>
       <c r="AB6" t="n">
-        <v>5947.600140783841</v>
+        <v>6126.966054810913</v>
       </c>
       <c r="AC6" t="n">
-        <v>5379.969530856431</v>
+        <v>5542.217013790394</v>
       </c>
       <c r="AD6" t="n">
-        <v>4346885.228578962</v>
+        <v>4477977.269694572</v>
       </c>
       <c r="AE6" t="n">
-        <v>5947600.140783841</v>
+        <v>6126966.054810913</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.395423658096083e-07</v>
+        <v>1.453911919510162e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.96805555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>5379969.530856431</v>
+        <v>5542217.013790394</v>
       </c>
     </row>
     <row r="7">
@@ -6432,28 +6432,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4092.214726536104</v>
+        <v>4213.216289316405</v>
       </c>
       <c r="AB7" t="n">
-        <v>5599.148724619176</v>
+        <v>5764.708401027393</v>
       </c>
       <c r="AC7" t="n">
-        <v>5064.773828795902</v>
+        <v>5214.532722052177</v>
       </c>
       <c r="AD7" t="n">
-        <v>4092214.726536104</v>
+        <v>4213216.289316405</v>
       </c>
       <c r="AE7" t="n">
-        <v>5599148.724619176</v>
+        <v>5764708.401027393</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.60217775501486e-07</v>
+        <v>1.489717408090585e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.36527777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>5064773.828795901</v>
+        <v>5214532.722052176</v>
       </c>
     </row>
     <row r="8">
@@ -6538,28 +6538,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3874.707507672052</v>
+        <v>4005.714207933091</v>
       </c>
       <c r="AB8" t="n">
-        <v>5301.545752028102</v>
+        <v>5480.794898932976</v>
       </c>
       <c r="AC8" t="n">
-        <v>4795.573666220535</v>
+        <v>4957.715526122559</v>
       </c>
       <c r="AD8" t="n">
-        <v>3874707.507672052</v>
+        <v>4005714.207933091</v>
       </c>
       <c r="AE8" t="n">
-        <v>5301545.752028101</v>
+        <v>5480794.898932976</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.754602308217756e-07</v>
+        <v>1.516114155146225e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.94166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>4795573.666220536</v>
+        <v>4957715.526122559</v>
       </c>
     </row>
     <row r="9">
@@ -6644,28 +6644,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3698.647099787355</v>
+        <v>3819.733913913677</v>
       </c>
       <c r="AB9" t="n">
-        <v>5060.652134723234</v>
+        <v>5226.328455784098</v>
       </c>
       <c r="AC9" t="n">
-        <v>4577.670597654937</v>
+        <v>4727.535003161922</v>
       </c>
       <c r="AD9" t="n">
-        <v>3698647.099787355</v>
+        <v>3819733.913913677</v>
       </c>
       <c r="AE9" t="n">
-        <v>5060652.134723234</v>
+        <v>5226328.455784098</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.866279703633739e-07</v>
+        <v>1.535454346058279e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.64027777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>4577670.597654937</v>
+        <v>4727535.003161922</v>
       </c>
     </row>
     <row r="10">
@@ -6750,28 +6750,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3616.61318248587</v>
+        <v>3737.699996612192</v>
       </c>
       <c r="AB10" t="n">
-        <v>4948.409709990326</v>
+        <v>5114.08603105119</v>
       </c>
       <c r="AC10" t="n">
-        <v>4476.14043240531</v>
+        <v>4626.004837912296</v>
       </c>
       <c r="AD10" t="n">
-        <v>3616613.18248587</v>
+        <v>3737699.996612192</v>
       </c>
       <c r="AE10" t="n">
-        <v>4948409.709990325</v>
+        <v>5114086.03105119</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.91457263138119e-07</v>
+        <v>1.543817671858085e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23.5125</v>
       </c>
       <c r="AH10" t="n">
-        <v>4476140.43240531</v>
+        <v>4626004.837912296</v>
       </c>
     </row>
     <row r="11">
@@ -6856,28 +6856,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3623.555083992319</v>
+        <v>3744.471305918049</v>
       </c>
       <c r="AB11" t="n">
-        <v>4957.907925886529</v>
+        <v>5123.350835172547</v>
       </c>
       <c r="AC11" t="n">
-        <v>4484.73215190721</v>
+        <v>4634.385422131545</v>
       </c>
       <c r="AD11" t="n">
-        <v>3623555.083992319</v>
+        <v>3744471.305918049</v>
       </c>
       <c r="AE11" t="n">
-        <v>4957907.925886529</v>
+        <v>5123350.835172547</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.922118401341728e-07</v>
+        <v>1.545124441514305e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>24</v>
+        <v>23.49166666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>4484732.15190721</v>
+        <v>4634385.422131545</v>
       </c>
     </row>
     <row r="12">
@@ -6962,28 +6962,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3641.655671485667</v>
+        <v>3762.571893411396</v>
       </c>
       <c r="AB12" t="n">
-        <v>4982.673948236493</v>
+        <v>5148.11685752251</v>
       </c>
       <c r="AC12" t="n">
-        <v>4507.134539843421</v>
+        <v>4656.787810067757</v>
       </c>
       <c r="AD12" t="n">
-        <v>3641655.671485667</v>
+        <v>3762571.893411396</v>
       </c>
       <c r="AE12" t="n">
-        <v>4982673.948236492</v>
+        <v>5148116.85752251</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.922118401341728e-07</v>
+        <v>1.545124441514305e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>23.49166666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>4507134.539843421</v>
+        <v>4656787.810067757</v>
       </c>
     </row>
   </sheetData>
@@ -7259,28 +7259,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4894.165296891392</v>
+        <v>5039.925895348818</v>
       </c>
       <c r="AB2" t="n">
-        <v>6696.412874541546</v>
+        <v>6895.848955854768</v>
       </c>
       <c r="AC2" t="n">
-        <v>6057.316628269545</v>
+        <v>6237.718809892525</v>
       </c>
       <c r="AD2" t="n">
-        <v>4894165.296891392</v>
+        <v>5039925.895348818</v>
       </c>
       <c r="AE2" t="n">
-        <v>6696412.874541545</v>
+        <v>6895848.955854768</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.23781483025982e-07</v>
+        <v>1.369550316219503e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>6057316.628269545</v>
+        <v>6237718.809892525</v>
       </c>
     </row>
     <row r="3">
@@ -7365,28 +7365,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3100.604105772205</v>
+        <v>3228.048542641076</v>
       </c>
       <c r="AB3" t="n">
-        <v>4242.383326516836</v>
+        <v>4416.758427492578</v>
       </c>
       <c r="AC3" t="n">
-        <v>3837.496216056304</v>
+        <v>3995.229202131907</v>
       </c>
       <c r="AD3" t="n">
-        <v>3100604.105772205</v>
+        <v>3228048.542641076</v>
       </c>
       <c r="AE3" t="n">
-        <v>4242383.326516836</v>
+        <v>4416758.427492579</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.063266499873976e-07</v>
+        <v>1.714965053953784e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.80833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3837496.216056304</v>
+        <v>3995229.202131907</v>
       </c>
     </row>
     <row r="4">
@@ -7471,28 +7471,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2741.949588582831</v>
+        <v>2860.364000693559</v>
       </c>
       <c r="AB4" t="n">
-        <v>3751.65639337772</v>
+        <v>3913.676216102793</v>
       </c>
       <c r="AC4" t="n">
-        <v>3393.603572676427</v>
+        <v>3540.160450916862</v>
       </c>
       <c r="AD4" t="n">
-        <v>2741949.588582831</v>
+        <v>2860364.000693559</v>
       </c>
       <c r="AE4" t="n">
-        <v>3751656.39337772</v>
+        <v>3913676.216102793</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.496053473205008e-07</v>
+        <v>1.796857662438756e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.63194444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>3393603.572676427</v>
+        <v>3540160.450916863</v>
       </c>
     </row>
     <row r="5">
@@ -7577,28 +7577,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2756.899386964928</v>
+        <v>2875.313799075657</v>
       </c>
       <c r="AB5" t="n">
-        <v>3772.111367062664</v>
+        <v>3934.131189787738</v>
       </c>
       <c r="AC5" t="n">
-        <v>3412.106352381615</v>
+        <v>3558.663230622051</v>
       </c>
       <c r="AD5" t="n">
-        <v>2756899.386964928</v>
+        <v>2875313.799075657</v>
       </c>
       <c r="AE5" t="n">
-        <v>3772111.367062664</v>
+        <v>3934131.189787738</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.504473453230904e-07</v>
+        <v>1.79845090384897e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.60694444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>3412106.352381615</v>
+        <v>3558663.230622051</v>
       </c>
     </row>
   </sheetData>
@@ -7874,28 +7874,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7482.212616216625</v>
+        <v>7662.47800881651</v>
       </c>
       <c r="AB2" t="n">
-        <v>10237.49339343208</v>
+        <v>10484.1404563351</v>
       </c>
       <c r="AC2" t="n">
-        <v>9260.441392374756</v>
+        <v>9483.548805765631</v>
       </c>
       <c r="AD2" t="n">
-        <v>7482212.616216625</v>
+        <v>7662478.00881651</v>
       </c>
       <c r="AE2" t="n">
-        <v>10237493.39343208</v>
+        <v>10484140.4563351</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.978515782478458e-07</v>
+        <v>1.089155737282552e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.425</v>
       </c>
       <c r="AH2" t="n">
-        <v>9260441.392374756</v>
+        <v>9483548.805765631</v>
       </c>
     </row>
     <row r="3">
@@ -7980,28 +7980,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4272.387524808865</v>
+        <v>4405.340355714478</v>
       </c>
       <c r="AB3" t="n">
-        <v>5845.669095878853</v>
+        <v>6027.581024588861</v>
       </c>
       <c r="AC3" t="n">
-        <v>5287.76664181606</v>
+        <v>5452.317151364974</v>
       </c>
       <c r="AD3" t="n">
-        <v>4272387.524808865</v>
+        <v>4405340.355714479</v>
       </c>
       <c r="AE3" t="n">
-        <v>5845669.095878853</v>
+        <v>6027581.024588861</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.098625394373271e-07</v>
+        <v>1.475393665135918e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.62916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>5287766.64181606</v>
+        <v>5452317.151364974</v>
       </c>
     </row>
     <row r="4">
@@ -8086,28 +8086,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3532.614655153981</v>
+        <v>3655.900263080031</v>
       </c>
       <c r="AB4" t="n">
-        <v>4833.479219141342</v>
+        <v>5002.164026882931</v>
       </c>
       <c r="AC4" t="n">
-        <v>4372.178746297</v>
+        <v>4524.764512738339</v>
       </c>
       <c r="AD4" t="n">
-        <v>3532614.655153981</v>
+        <v>3655900.263080031</v>
       </c>
       <c r="AE4" t="n">
-        <v>4833479.219141342</v>
+        <v>5002164.026882931</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.852585347539511e-07</v>
+        <v>1.612748794494105e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.27638888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>4372178.746297</v>
+        <v>4524764.51273834</v>
       </c>
     </row>
     <row r="5">
@@ -8192,28 +8192,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3144.15864460255</v>
+        <v>3258.032962604198</v>
       </c>
       <c r="AB5" t="n">
-        <v>4301.976568035159</v>
+        <v>4457.784433705374</v>
       </c>
       <c r="AC5" t="n">
-        <v>3891.401962243755</v>
+        <v>4032.339743892112</v>
       </c>
       <c r="AD5" t="n">
-        <v>3144158.64460255</v>
+        <v>3258032.962604198</v>
       </c>
       <c r="AE5" t="n">
-        <v>4301976.568035159</v>
+        <v>4457784.433705374</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.232787375204539e-07</v>
+        <v>1.682013346905499e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.23611111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>3891401.962243755</v>
+        <v>4032339.743892112</v>
       </c>
     </row>
     <row r="6">
@@ -8298,28 +8298,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3038.590867794415</v>
+        <v>3161.876386211914</v>
       </c>
       <c r="AB6" t="n">
-        <v>4157.534078484646</v>
+        <v>4326.218763756686</v>
       </c>
       <c r="AC6" t="n">
-        <v>3760.744861169641</v>
+        <v>3913.330516829755</v>
       </c>
       <c r="AD6" t="n">
-        <v>3038590.867794415</v>
+        <v>3161876.386211914</v>
       </c>
       <c r="AE6" t="n">
-        <v>4157534.078484646</v>
+        <v>4326218.763756686</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.326226856579841e-07</v>
+        <v>1.699035991142198e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.99027777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>3760744.861169641</v>
+        <v>3913330.516829755</v>
       </c>
     </row>
     <row r="7">
@@ -8404,28 +8404,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3056.158551625702</v>
+        <v>3179.444070043201</v>
       </c>
       <c r="AB7" t="n">
-        <v>4181.570958534126</v>
+        <v>4350.255643806166</v>
       </c>
       <c r="AC7" t="n">
-        <v>3782.48769512317</v>
+        <v>3935.073350783285</v>
       </c>
       <c r="AD7" t="n">
-        <v>3056158.551625702</v>
+        <v>3179444.070043201</v>
       </c>
       <c r="AE7" t="n">
-        <v>4181570.958534125</v>
+        <v>4350255.643806166</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.326226856579841e-07</v>
+        <v>1.699035991142198e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.99027777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>3782487.695123171</v>
+        <v>3935073.350783285</v>
       </c>
     </row>
   </sheetData>
@@ -8701,28 +8701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3410.07037510419</v>
+        <v>3541.939532409608</v>
       </c>
       <c r="AB2" t="n">
-        <v>4665.808728905127</v>
+        <v>4846.237927587042</v>
       </c>
       <c r="AC2" t="n">
-        <v>4220.510492321926</v>
+        <v>4383.719781515602</v>
       </c>
       <c r="AD2" t="n">
-        <v>3410070.37510419</v>
+        <v>3541939.532409607</v>
       </c>
       <c r="AE2" t="n">
-        <v>4665808.728905127</v>
+        <v>4846237.927587042</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.340845307511225e-07</v>
+        <v>1.634536937846316e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>4220510.492321926</v>
+        <v>4383719.781515602</v>
       </c>
     </row>
     <row r="3">
@@ -8807,28 +8807,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2515.276772663827</v>
+        <v>2629.54063003511</v>
       </c>
       <c r="AB3" t="n">
-        <v>3441.512646538455</v>
+        <v>3597.853497159467</v>
       </c>
       <c r="AC3" t="n">
-        <v>3113.05950974603</v>
+        <v>3254.479409009529</v>
       </c>
       <c r="AD3" t="n">
-        <v>2515276.772663827</v>
+        <v>2629540.63003511</v>
       </c>
       <c r="AE3" t="n">
-        <v>3441512.646538455</v>
+        <v>3597853.497159467</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.545886703375186e-07</v>
+        <v>1.870686224945522e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.44444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>3113059.50974603</v>
+        <v>3254479.409009529</v>
       </c>
     </row>
     <row r="4">
@@ -8913,28 +8913,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2540.831131061478</v>
+        <v>2655.094988432761</v>
       </c>
       <c r="AB4" t="n">
-        <v>3476.477247076849</v>
+        <v>3632.818097697862</v>
       </c>
       <c r="AC4" t="n">
-        <v>3144.687137882164</v>
+        <v>3286.107037145663</v>
       </c>
       <c r="AD4" t="n">
-        <v>2540831.131061478</v>
+        <v>2655094.988432761</v>
       </c>
       <c r="AE4" t="n">
-        <v>3476477.247076849</v>
+        <v>3632818.097697861</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.545886703375186e-07</v>
+        <v>1.870686224945522e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.44722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>3144687.137882164</v>
+        <v>3286107.037145663</v>
       </c>
     </row>
   </sheetData>
@@ -9210,28 +9210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>17655.87837519141</v>
+        <v>17940.62747520272</v>
       </c>
       <c r="AB2" t="n">
-        <v>24157.5517153186</v>
+        <v>24547.1579961978</v>
       </c>
       <c r="AC2" t="n">
-        <v>21851.98888494447</v>
+        <v>22204.41168919238</v>
       </c>
       <c r="AD2" t="n">
-        <v>17655878.37519141</v>
+        <v>17940627.47520272</v>
       </c>
       <c r="AE2" t="n">
-        <v>24157551.7153186</v>
+        <v>24547157.99619779</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.860136812171137e-07</v>
+        <v>6.641292842906109e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.8125</v>
       </c>
       <c r="AH2" t="n">
-        <v>21851988.88494447</v>
+        <v>22204411.68919238</v>
       </c>
     </row>
     <row r="3">
@@ -9316,28 +9316,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>7136.277232344861</v>
+        <v>7299.003284839098</v>
       </c>
       <c r="AB3" t="n">
-        <v>9764.16933962668</v>
+        <v>9986.818303616075</v>
       </c>
       <c r="AC3" t="n">
-        <v>8832.290721950078</v>
+        <v>9033.690381306104</v>
       </c>
       <c r="AD3" t="n">
-        <v>7136277.232344861</v>
+        <v>7299003.284839098</v>
       </c>
       <c r="AE3" t="n">
-        <v>9764169.339626679</v>
+        <v>9986818.303616075</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.475936612437437e-07</v>
+        <v>1.114172724129541e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.07222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>8832290.721950078</v>
+        <v>9033690.381306104</v>
       </c>
     </row>
     <row r="4">
@@ -9422,28 +9422,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>5601.545420675044</v>
+        <v>5754.010336316143</v>
       </c>
       <c r="AB4" t="n">
-        <v>7664.281567310947</v>
+        <v>7872.890791168471</v>
       </c>
       <c r="AC4" t="n">
-        <v>6932.81329141324</v>
+        <v>7121.513143730677</v>
       </c>
       <c r="AD4" t="n">
-        <v>5601545.420675044</v>
+        <v>5754010.336316143</v>
       </c>
       <c r="AE4" t="n">
-        <v>7664281.567310947</v>
+        <v>7872890.791168471</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.431623331917235e-07</v>
+        <v>1.278596828221637e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.95277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>6932813.29141324</v>
+        <v>7121513.143730678</v>
       </c>
     </row>
     <row r="5">
@@ -9528,28 +9528,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4963.157600408166</v>
+        <v>5095.356533432356</v>
       </c>
       <c r="AB5" t="n">
-        <v>6790.811187938816</v>
+        <v>6971.691600307831</v>
       </c>
       <c r="AC5" t="n">
-        <v>6142.705699125042</v>
+        <v>6306.323138804803</v>
       </c>
       <c r="AD5" t="n">
-        <v>4963157.600408167</v>
+        <v>5095356.533432356</v>
       </c>
       <c r="AE5" t="n">
-        <v>6790811.187938816</v>
+        <v>6971691.600307832</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.935639645633496e-07</v>
+        <v>1.365311887813243e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.17777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>6142705.699125042</v>
+        <v>6306323.138804803</v>
       </c>
     </row>
     <row r="6">
@@ -9634,28 +9634,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4586.242153075884</v>
+        <v>4718.355745245502</v>
       </c>
       <c r="AB6" t="n">
-        <v>6275.098844562791</v>
+        <v>6455.862489809607</v>
       </c>
       <c r="AC6" t="n">
-        <v>5676.212217994024</v>
+        <v>5839.724034641847</v>
       </c>
       <c r="AD6" t="n">
-        <v>4586242.153075884</v>
+        <v>4718355.745245501</v>
       </c>
       <c r="AE6" t="n">
-        <v>6275098.844562791</v>
+        <v>6455862.489809607</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.243732703869551e-07</v>
+        <v>1.418318719492386e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.19583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>5676212.217994024</v>
+        <v>5839724.034641847</v>
       </c>
     </row>
     <row r="7">
@@ -9740,28 +9740,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4317.048307535419</v>
+        <v>4449.247151051056</v>
       </c>
       <c r="AB7" t="n">
-        <v>5906.775949100004</v>
+        <v>6087.656238999471</v>
       </c>
       <c r="AC7" t="n">
-        <v>5343.041542729789</v>
+        <v>5506.658871628326</v>
       </c>
       <c r="AD7" t="n">
-        <v>4317048.307535418</v>
+        <v>4449247.151051056</v>
       </c>
       <c r="AE7" t="n">
-        <v>5906775.949100005</v>
+        <v>6087656.23899947</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.459098725160772e-07</v>
+        <v>1.455372038724408e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.55555555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>5343041.542729789</v>
+        <v>5506658.871628325</v>
       </c>
     </row>
     <row r="8">
@@ -9846,28 +9846,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>4101.972798614366</v>
+        <v>4223.996025148539</v>
       </c>
       <c r="AB8" t="n">
-        <v>5612.500149332413</v>
+        <v>5779.4577111613</v>
       </c>
       <c r="AC8" t="n">
-        <v>5076.85101227335</v>
+        <v>5227.874378727689</v>
       </c>
       <c r="AD8" t="n">
-        <v>4101972.798614366</v>
+        <v>4223996.025148539</v>
       </c>
       <c r="AE8" t="n">
-        <v>5612500.149332413</v>
+        <v>5779457.7111613</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.616136449018954e-07</v>
+        <v>1.482390083997757e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.10694444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>5076851.01227335</v>
+        <v>5227874.378727689</v>
       </c>
     </row>
     <row r="9">
@@ -9952,28 +9952,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3914.725290405965</v>
+        <v>4046.838793067031</v>
       </c>
       <c r="AB9" t="n">
-        <v>5356.299847824617</v>
+        <v>5537.063370601884</v>
       </c>
       <c r="AC9" t="n">
-        <v>4845.102107962086</v>
+        <v>5008.613813828682</v>
       </c>
       <c r="AD9" t="n">
-        <v>3914725.290405964</v>
+        <v>4046838.793067031</v>
       </c>
       <c r="AE9" t="n">
-        <v>5356299.847824617</v>
+        <v>5537063.370601884</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.737279835995268e-07</v>
+        <v>1.503232576065769e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.775</v>
       </c>
       <c r="AH9" t="n">
-        <v>4845102.107962086</v>
+        <v>5008613.813828683</v>
       </c>
     </row>
     <row r="10">
@@ -10058,28 +10058,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3757.823834606687</v>
+        <v>3879.932312486881</v>
       </c>
       <c r="AB10" t="n">
-        <v>5141.620353996334</v>
+        <v>5308.694560477871</v>
       </c>
       <c r="AC10" t="n">
-        <v>4650.91132372022</v>
+        <v>4802.040202425273</v>
       </c>
       <c r="AD10" t="n">
-        <v>3757823.834606688</v>
+        <v>3879932.312486881</v>
       </c>
       <c r="AE10" t="n">
-        <v>5141620.353996335</v>
+        <v>5308694.560477871</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.825520080829865e-07</v>
+        <v>1.518414144362222e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23.53611111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>4650911.32372022</v>
+        <v>4802040.202425272</v>
       </c>
     </row>
     <row r="11">
@@ -10164,28 +10164,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3705.22157086087</v>
+        <v>3827.15945654047</v>
       </c>
       <c r="AB11" t="n">
-        <v>5069.64761609121</v>
+        <v>5236.488410797898</v>
       </c>
       <c r="AC11" t="n">
-        <v>4585.807562906391</v>
+        <v>4736.725306328792</v>
       </c>
       <c r="AD11" t="n">
-        <v>3705221.57086087</v>
+        <v>3827159.45654047</v>
       </c>
       <c r="AE11" t="n">
-        <v>5069647.616091209</v>
+        <v>5236488.410797898</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.858423222971581e-07</v>
+        <v>1.524075068133781e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>24</v>
+        <v>23.44861111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>4585807.562906391</v>
+        <v>4736725.306328792</v>
       </c>
     </row>
     <row r="12">
@@ -10270,28 +10270,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3717.312902968119</v>
+        <v>3839.25078864772</v>
       </c>
       <c r="AB12" t="n">
-        <v>5086.191510112273</v>
+        <v>5253.032304818962</v>
       </c>
       <c r="AC12" t="n">
-        <v>4600.772530901585</v>
+        <v>4751.690274323987</v>
       </c>
       <c r="AD12" t="n">
-        <v>3717312.902968119</v>
+        <v>3839250.78864772</v>
       </c>
       <c r="AE12" t="n">
-        <v>5086191.510112274</v>
+        <v>5253032.304818962</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.864405612451891e-07</v>
+        <v>1.525104327001337e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>23.43194444444445</v>
       </c>
       <c r="AH12" t="n">
-        <v>4600772.530901585</v>
+        <v>4751690.274323987</v>
       </c>
     </row>
   </sheetData>
@@ -10567,28 +10567,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2678.768316678087</v>
+        <v>2799.242381238393</v>
       </c>
       <c r="AB2" t="n">
-        <v>3665.208989796651</v>
+        <v>3830.046919868689</v>
       </c>
       <c r="AC2" t="n">
-        <v>3315.406587963445</v>
+        <v>3464.51261734089</v>
       </c>
       <c r="AD2" t="n">
-        <v>2678768.316678087</v>
+        <v>2799242.381238393</v>
       </c>
       <c r="AE2" t="n">
-        <v>3665208.989796651</v>
+        <v>3830046.919868689</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.042401328289934e-07</v>
+        <v>1.812694365219348e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.49027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>3315406.587963445</v>
+        <v>3464512.61734089</v>
       </c>
     </row>
     <row r="3">
@@ -10673,28 +10673,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2409.835114051554</v>
+        <v>2521.777043983511</v>
       </c>
       <c r="AB3" t="n">
-        <v>3297.242717467462</v>
+        <v>3450.406604529778</v>
       </c>
       <c r="AC3" t="n">
-        <v>2982.558500221462</v>
+        <v>3121.10464086941</v>
       </c>
       <c r="AD3" t="n">
-        <v>2409835.114051554</v>
+        <v>2521777.043983511</v>
       </c>
       <c r="AE3" t="n">
-        <v>3297242.717467462</v>
+        <v>3450406.604529778</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.498817072295067e-07</v>
+        <v>1.904190220945977e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.17083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2982558.500221462</v>
+        <v>3121104.64086941</v>
       </c>
     </row>
   </sheetData>
@@ -10970,28 +10970,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>10863.42207879582</v>
+        <v>11079.16502497016</v>
       </c>
       <c r="AB2" t="n">
-        <v>14863.81334856691</v>
+        <v>15159.0023654297</v>
       </c>
       <c r="AC2" t="n">
-        <v>13445.23186407218</v>
+        <v>13712.24845546596</v>
       </c>
       <c r="AD2" t="n">
-        <v>10863422.07879582</v>
+        <v>11079165.02497016</v>
       </c>
       <c r="AE2" t="n">
-        <v>14863813.34856691</v>
+        <v>15159002.3654297</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.974113125581626e-07</v>
+        <v>8.809523956331031e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.41805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>13445231.86407218</v>
+        <v>13712248.45546596</v>
       </c>
     </row>
     <row r="3">
@@ -11076,28 +11076,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5430.056690324338</v>
+        <v>5577.09987428847</v>
       </c>
       <c r="AB3" t="n">
-        <v>7429.643120896263</v>
+        <v>7630.834092283441</v>
       </c>
       <c r="AC3" t="n">
-        <v>6720.568409007255</v>
+        <v>6902.557996458535</v>
       </c>
       <c r="AD3" t="n">
-        <v>5430056.690324338</v>
+        <v>5577099.87428847</v>
       </c>
       <c r="AE3" t="n">
-        <v>7429643.120896263</v>
+        <v>7630834.092283442</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.339110332211713e-07</v>
+        <v>1.299810974488355e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.42777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>6720568.409007255</v>
+        <v>6902557.996458535</v>
       </c>
     </row>
     <row r="4">
@@ -11182,28 +11182,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4426.538282507425</v>
+        <v>4563.681873872671</v>
       </c>
       <c r="AB4" t="n">
-        <v>6056.584963213499</v>
+        <v>6244.230875267678</v>
       </c>
       <c r="AC4" t="n">
-        <v>5478.552994794558</v>
+        <v>5648.29024436497</v>
       </c>
       <c r="AD4" t="n">
-        <v>4426538.282507425</v>
+        <v>4563681.87387267</v>
       </c>
       <c r="AE4" t="n">
-        <v>6056584.963213499</v>
+        <v>6244230.875267678</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.175644518383303e-07</v>
+        <v>1.447967394885544e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.41388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>5478552.994794558</v>
+        <v>5648290.24436497</v>
       </c>
     </row>
     <row r="5">
@@ -11288,28 +11288,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3950.670023429468</v>
+        <v>4068.441133869799</v>
       </c>
       <c r="AB5" t="n">
-        <v>5405.481017317082</v>
+        <v>5566.620646316249</v>
       </c>
       <c r="AC5" t="n">
-        <v>4889.589495664392</v>
+        <v>5035.350184632763</v>
       </c>
       <c r="AD5" t="n">
-        <v>3950670.023429468</v>
+        <v>4068441.133869799</v>
       </c>
       <c r="AE5" t="n">
-        <v>5405481.017317082</v>
+        <v>5566620.646316249</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.620344847835114e-07</v>
+        <v>1.526727127661746e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.05416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>4889589.495664392</v>
+        <v>5035350.184632762</v>
       </c>
     </row>
     <row r="6">
@@ -11394,28 +11394,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3632.563273146843</v>
+        <v>3750.249042732602</v>
       </c>
       <c r="AB6" t="n">
-        <v>4970.233327701007</v>
+        <v>5131.256189577978</v>
       </c>
       <c r="AC6" t="n">
-        <v>4495.881234671323</v>
+        <v>4641.536300607755</v>
       </c>
       <c r="AD6" t="n">
-        <v>3632563.273146843</v>
+        <v>3750249.042732602</v>
       </c>
       <c r="AE6" t="n">
-        <v>4970233.327701007</v>
+        <v>5131256.189577978</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.889341900265756e-07</v>
+        <v>1.574368504480916e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.29166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>4495881.234671323</v>
+        <v>4641536.300607755</v>
       </c>
     </row>
     <row r="7">
@@ -11500,28 +11500,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3393.043162597323</v>
+        <v>3520.457753564274</v>
       </c>
       <c r="AB7" t="n">
-        <v>4642.51134556563</v>
+        <v>4816.845610061657</v>
       </c>
       <c r="AC7" t="n">
-        <v>4199.436578550269</v>
+        <v>4357.132625522465</v>
       </c>
       <c r="AD7" t="n">
-        <v>3393043.162597323</v>
+        <v>3520457.753564274</v>
       </c>
       <c r="AE7" t="n">
-        <v>4642511.34556563</v>
+        <v>4816845.610061657</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.06660007354375e-07</v>
+        <v>1.605762244118982e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.81805555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>4199436.578550269</v>
+        <v>4357132.625522465</v>
       </c>
     </row>
     <row r="8">
@@ -11606,28 +11606,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3330.849684862013</v>
+        <v>3448.620705793792</v>
       </c>
       <c r="AB8" t="n">
-        <v>4557.415485545583</v>
+        <v>4718.554992075204</v>
       </c>
       <c r="AC8" t="n">
-        <v>4122.462147977748</v>
+        <v>4268.222726164893</v>
       </c>
       <c r="AD8" t="n">
-        <v>3330849.684862013</v>
+        <v>3448620.705793792</v>
       </c>
       <c r="AE8" t="n">
-        <v>4557415.485545583</v>
+        <v>4718554.992075204</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.116356753762135e-07</v>
+        <v>1.614574521912124e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.69027777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>4122462.147977748</v>
+        <v>4268222.726164893</v>
       </c>
     </row>
     <row r="9">
@@ -11712,28 +11712,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3345.861735229331</v>
+        <v>3463.632756161111</v>
       </c>
       <c r="AB9" t="n">
-        <v>4577.955635143071</v>
+        <v>4739.09514167269</v>
       </c>
       <c r="AC9" t="n">
-        <v>4141.041974525931</v>
+        <v>4286.802552713076</v>
       </c>
       <c r="AD9" t="n">
-        <v>3345861.735229331</v>
+        <v>3463632.75616111</v>
       </c>
       <c r="AE9" t="n">
-        <v>4577955.635143071</v>
+        <v>4739095.14167269</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.119466546275784e-07</v>
+        <v>1.615125289274195e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.68055555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>4141041.974525931</v>
+        <v>4286802.552713076</v>
       </c>
     </row>
   </sheetData>
@@ -12009,28 +12009,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>13835.4624074595</v>
+        <v>14085.26126674997</v>
       </c>
       <c r="AB2" t="n">
-        <v>18930.2900434103</v>
+        <v>19272.07586303944</v>
       </c>
       <c r="AC2" t="n">
-        <v>17123.60973049545</v>
+        <v>17432.77599119859</v>
       </c>
       <c r="AD2" t="n">
-        <v>13835462.4074595</v>
+        <v>14085261.26674997</v>
       </c>
       <c r="AE2" t="n">
-        <v>18930290.0434103</v>
+        <v>19272075.86303945</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.39069400349564e-07</v>
+        <v>7.656986950189431e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.1875</v>
       </c>
       <c r="AH2" t="n">
-        <v>17123609.73049545</v>
+        <v>17432775.99119859</v>
       </c>
     </row>
     <row r="3">
@@ -12115,28 +12115,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>6250.383509375823</v>
+        <v>6410.333235622463</v>
       </c>
       <c r="AB3" t="n">
-        <v>8552.050464987646</v>
+        <v>8770.900736922211</v>
       </c>
       <c r="AC3" t="n">
-        <v>7735.854771487115</v>
+        <v>7933.818280626521</v>
       </c>
       <c r="AD3" t="n">
-        <v>6250383.509375824</v>
+        <v>6410333.235622463</v>
       </c>
       <c r="AE3" t="n">
-        <v>8552050.464987645</v>
+        <v>8770900.73692221</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.889215226858877e-07</v>
+        <v>1.201418979484962e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.71527777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>7735854.771487115</v>
+        <v>7933818.280626521</v>
       </c>
     </row>
     <row r="4">
@@ -12221,28 +12221,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>5013.483191392235</v>
+        <v>5153.343282905202</v>
       </c>
       <c r="AB4" t="n">
-        <v>6859.668881731603</v>
+        <v>7051.031629131422</v>
       </c>
       <c r="AC4" t="n">
-        <v>6204.991711264623</v>
+        <v>6378.091066631899</v>
       </c>
       <c r="AD4" t="n">
-        <v>5013483.191392235</v>
+        <v>5153343.282905201</v>
       </c>
       <c r="AE4" t="n">
-        <v>6859668.881731602</v>
+        <v>7051031.629131422</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.788073471849309e-07</v>
+        <v>1.358172008652615e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.16805555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>6204991.711264622</v>
+        <v>6378091.066631898</v>
       </c>
     </row>
     <row r="5">
@@ -12327,28 +12327,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4456.537180360103</v>
+        <v>4586.565672379837</v>
       </c>
       <c r="AB5" t="n">
-        <v>6097.630778713505</v>
+        <v>6275.541497947123</v>
       </c>
       <c r="AC5" t="n">
-        <v>5515.681455271406</v>
+        <v>5676.612625160624</v>
       </c>
       <c r="AD5" t="n">
-        <v>4456537.180360103</v>
+        <v>4586565.672379837</v>
       </c>
       <c r="AE5" t="n">
-        <v>6097630.778713505</v>
+        <v>6275541.497947124</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.258831434056164e-07</v>
+        <v>1.44026808664042e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.62083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>5515681.455271406</v>
+        <v>5676612.625160623</v>
       </c>
     </row>
     <row r="6">
@@ -12433,28 +12433,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4111.817575152645</v>
+        <v>4241.760726317807</v>
       </c>
       <c r="AB6" t="n">
-        <v>5625.970206912976</v>
+        <v>5803.764159024397</v>
       </c>
       <c r="AC6" t="n">
-        <v>5089.035506463766</v>
+        <v>5249.861053321047</v>
       </c>
       <c r="AD6" t="n">
-        <v>4111817.575152645</v>
+        <v>4241760.726317807</v>
       </c>
       <c r="AE6" t="n">
-        <v>5625970.206912976</v>
+        <v>5803764.159024398</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.554388212917425e-07</v>
+        <v>1.491810608095547e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.7375</v>
       </c>
       <c r="AH6" t="n">
-        <v>5089035.506463766</v>
+        <v>5249861.053321047</v>
       </c>
     </row>
     <row r="7">
@@ -12539,28 +12539,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3864.183077142457</v>
+        <v>3984.124126122344</v>
       </c>
       <c r="AB7" t="n">
-        <v>5287.145761872402</v>
+        <v>5451.254396512325</v>
       </c>
       <c r="AC7" t="n">
-        <v>4782.547990914783</v>
+        <v>4930.994327792579</v>
       </c>
       <c r="AD7" t="n">
-        <v>3864183.077142457</v>
+        <v>3984124.126122344</v>
       </c>
       <c r="AE7" t="n">
-        <v>5287145.761872401</v>
+        <v>5451254.396512325</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.753965213076318e-07</v>
+        <v>1.526615094232771e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.17361111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>4782547.990914783</v>
+        <v>4930994.327792579</v>
       </c>
     </row>
     <row r="8">
@@ -12645,28 +12645,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3639.251040467008</v>
+        <v>3769.108850777599</v>
       </c>
       <c r="AB8" t="n">
-        <v>4979.383825991928</v>
+        <v>5157.061010981152</v>
       </c>
       <c r="AC8" t="n">
-        <v>4504.158422248164</v>
+        <v>4664.878346073505</v>
       </c>
       <c r="AD8" t="n">
-        <v>3639251.040467008</v>
+        <v>3769108.850777599</v>
       </c>
       <c r="AE8" t="n">
-        <v>4979383.825991929</v>
+        <v>5157061.010981153</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.904790579608611e-07</v>
+        <v>1.552917721160903e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.76388888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>4504158.422248164</v>
+        <v>4664878.346073505</v>
       </c>
     </row>
     <row r="9">
@@ -12751,28 +12751,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3527.437859967972</v>
+        <v>3647.46416029388</v>
       </c>
       <c r="AB9" t="n">
-        <v>4826.396099583758</v>
+        <v>4990.62137887633</v>
       </c>
       <c r="AC9" t="n">
-        <v>4365.771629728772</v>
+        <v>4514.323478857282</v>
       </c>
       <c r="AD9" t="n">
-        <v>3527437.859967972</v>
+        <v>3647464.16029388</v>
       </c>
       <c r="AE9" t="n">
-        <v>4826396.099583758</v>
+        <v>4990621.378876329</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.974871052946847e-07</v>
+        <v>1.565139143773974e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.57638888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>4365771.629728772</v>
+        <v>4514323.478857282</v>
       </c>
     </row>
     <row r="10">
@@ -12857,28 +12857,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3521.324595900123</v>
+        <v>3641.350896226031</v>
       </c>
       <c r="AB10" t="n">
-        <v>4818.031661987951</v>
+        <v>4982.256941280522</v>
       </c>
       <c r="AC10" t="n">
-        <v>4358.205482317547</v>
+        <v>4506.757331446055</v>
       </c>
       <c r="AD10" t="n">
-        <v>3521324.595900123</v>
+        <v>3641350.896226031</v>
       </c>
       <c r="AE10" t="n">
-        <v>4818031.661987951</v>
+        <v>4982256.941280522</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.990105938455159e-07</v>
+        <v>1.567795974776816e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23.5375</v>
       </c>
       <c r="AH10" t="n">
-        <v>4358205.482317546</v>
+        <v>4506757.331446055</v>
       </c>
     </row>
     <row r="11">
@@ -12963,28 +12963,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3539.783542295012</v>
+        <v>3659.80984262092</v>
       </c>
       <c r="AB11" t="n">
-        <v>4843.288006796681</v>
+        <v>5007.513286089252</v>
       </c>
       <c r="AC11" t="n">
-        <v>4381.051397025233</v>
+        <v>4529.603246153742</v>
       </c>
       <c r="AD11" t="n">
-        <v>3539783.542295012</v>
+        <v>3659809.84262092</v>
       </c>
       <c r="AE11" t="n">
-        <v>4843288.00679668</v>
+        <v>5007513.286089252</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.990105938455159e-07</v>
+        <v>1.567795974776816e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>24</v>
+        <v>23.5375</v>
       </c>
       <c r="AH11" t="n">
-        <v>4381051.397025233</v>
+        <v>4529603.246153742</v>
       </c>
     </row>
   </sheetData>
@@ -13260,28 +13260,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>22809.32250060421</v>
+        <v>23129.69734478896</v>
       </c>
       <c r="AB2" t="n">
-        <v>31208.72132161798</v>
+        <v>31647.07231737219</v>
       </c>
       <c r="AC2" t="n">
-        <v>28230.20476039691</v>
+        <v>28626.72015234582</v>
       </c>
       <c r="AD2" t="n">
-        <v>22809322.50060421</v>
+        <v>23129697.34478896</v>
       </c>
       <c r="AE2" t="n">
-        <v>31208721.32161798</v>
+        <v>31647072.31737219</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.36598898597915e-07</v>
+        <v>5.721958190603604e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>61</v>
+        <v>60.66805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>28230204.76039692</v>
+        <v>28626720.15234582</v>
       </c>
     </row>
     <row r="3">
@@ -13366,28 +13366,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>8078.443105286429</v>
+        <v>8254.179335791867</v>
       </c>
       <c r="AB3" t="n">
-        <v>11053.28225241018</v>
+        <v>11293.73231592305</v>
       </c>
       <c r="AC3" t="n">
-        <v>9998.372507618809</v>
+        <v>10215.87435454379</v>
       </c>
       <c r="AD3" t="n">
-        <v>8078443.10528643</v>
+        <v>8254179.335791867</v>
       </c>
       <c r="AE3" t="n">
-        <v>11053282.25241018</v>
+        <v>11293732.31592305</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.095248731709731e-07</v>
+        <v>1.036151887289294e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.51111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>9998372.507618809</v>
+        <v>10215874.35454379</v>
       </c>
     </row>
     <row r="4">
@@ -13472,28 +13472,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>6220.882622889772</v>
+        <v>6375.858661892941</v>
       </c>
       <c r="AB4" t="n">
-        <v>8511.686050610169</v>
+        <v>8723.731104234623</v>
       </c>
       <c r="AC4" t="n">
-        <v>7699.342680166015</v>
+        <v>7891.150451479644</v>
       </c>
       <c r="AD4" t="n">
-        <v>6220882.622889772</v>
+        <v>6375858.661892941</v>
       </c>
       <c r="AE4" t="n">
-        <v>8511686.05061017</v>
+        <v>8723731.104234623</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.09813404775944e-07</v>
+        <v>1.206635744257038e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.77083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>7699342.680166015</v>
+        <v>7891150.451479645</v>
       </c>
     </row>
     <row r="5">
@@ -13578,28 +13578,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>5470.567323286057</v>
+        <v>5615.205936965377</v>
       </c>
       <c r="AB5" t="n">
-        <v>7485.071556117485</v>
+        <v>7682.972488358826</v>
       </c>
       <c r="AC5" t="n">
-        <v>6770.706832165257</v>
+        <v>6949.720377189181</v>
       </c>
       <c r="AD5" t="n">
-        <v>5470567.323286057</v>
+        <v>5615205.936965377</v>
       </c>
       <c r="AE5" t="n">
-        <v>7485071.556117484</v>
+        <v>7682972.488358826</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.628986832354666e-07</v>
+        <v>1.296877199338204e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.76944444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>6770706.832165257</v>
+        <v>6949720.377189181</v>
       </c>
     </row>
     <row r="6">
@@ -13684,28 +13684,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>5038.557973589366</v>
+        <v>5172.944502799408</v>
       </c>
       <c r="AB6" t="n">
-        <v>6893.977304955037</v>
+        <v>7077.850882935467</v>
       </c>
       <c r="AC6" t="n">
-        <v>6236.025786727784</v>
+        <v>6402.350728493943</v>
       </c>
       <c r="AD6" t="n">
-        <v>5038557.973589366</v>
+        <v>5172944.502799408</v>
       </c>
       <c r="AE6" t="n">
-        <v>6893977.304955036</v>
+        <v>7077850.882935467</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.964262275256914e-07</v>
+        <v>1.353871802547362e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.64305555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>6236025.786727784</v>
+        <v>6402350.728493943</v>
       </c>
     </row>
     <row r="7">
@@ -13790,28 +13790,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4746.400253834923</v>
+        <v>4880.701442190395</v>
       </c>
       <c r="AB7" t="n">
-        <v>6494.234223698057</v>
+        <v>6677.991034556289</v>
       </c>
       <c r="AC7" t="n">
-        <v>5874.433624103047</v>
+        <v>6040.652942837268</v>
       </c>
       <c r="AD7" t="n">
-        <v>4746400.253834923</v>
+        <v>4880701.442190395</v>
       </c>
       <c r="AE7" t="n">
-        <v>6494234.223698056</v>
+        <v>6677991.034556289</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.187779237191746e-07</v>
+        <v>1.391868204686801e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.94305555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>5874433.624103047</v>
+        <v>6040652.942837268</v>
       </c>
     </row>
     <row r="8">
@@ -13896,28 +13896,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>4526.926255276459</v>
+        <v>4661.056851431338</v>
       </c>
       <c r="AB8" t="n">
-        <v>6193.940216360889</v>
+        <v>6377.463615444276</v>
       </c>
       <c r="AC8" t="n">
-        <v>5602.799255360864</v>
+        <v>5768.807438812435</v>
       </c>
       <c r="AD8" t="n">
-        <v>4526926.255276459</v>
+        <v>4661056.851431338</v>
       </c>
       <c r="AE8" t="n">
-        <v>6193940.216360889</v>
+        <v>6377463.615444276</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.358357971299908e-07</v>
+        <v>1.420865458951109e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.43611111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>5602799.255360864</v>
+        <v>5768807.438812435</v>
       </c>
     </row>
     <row r="9">
@@ -14002,28 +14002,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>4345.722358243776</v>
+        <v>4469.686210783949</v>
       </c>
       <c r="AB9" t="n">
-        <v>5946.00905028902</v>
+        <v>6115.621862233693</v>
       </c>
       <c r="AC9" t="n">
-        <v>5378.530291805327</v>
+        <v>5531.95549503107</v>
       </c>
       <c r="AD9" t="n">
-        <v>4345722.358243776</v>
+        <v>4469686.210783949</v>
       </c>
       <c r="AE9" t="n">
-        <v>5946009.05028902</v>
+        <v>6115621.862233693</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.48335100922399e-07</v>
+        <v>1.442113446989611e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.07361111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>5378530.291805327</v>
+        <v>5531955.49503107</v>
       </c>
     </row>
     <row r="10">
@@ -14108,28 +14108,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>4175.857683442278</v>
+        <v>4310.073530943178</v>
       </c>
       <c r="AB10" t="n">
-        <v>5713.59270832504</v>
+        <v>5897.232752061074</v>
       </c>
       <c r="AC10" t="n">
-        <v>5168.295439320013</v>
+        <v>5334.409135022293</v>
       </c>
       <c r="AD10" t="n">
-        <v>4175857.683442279</v>
+        <v>4310073.530943178</v>
       </c>
       <c r="AE10" t="n">
-        <v>5713592.70832504</v>
+        <v>5897232.752061075</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.583345439563258e-07</v>
+        <v>1.459111837420413e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23.79305555555555</v>
       </c>
       <c r="AH10" t="n">
-        <v>5168295.439320013</v>
+        <v>5334409.135022294</v>
       </c>
     </row>
     <row r="11">
@@ -14214,28 +14214,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>4036.627755729303</v>
+        <v>4160.676859615495</v>
       </c>
       <c r="AB11" t="n">
-        <v>5523.092178837232</v>
+        <v>5692.821635434553</v>
       </c>
       <c r="AC11" t="n">
-        <v>4995.976012997357</v>
+        <v>5149.506728473812</v>
       </c>
       <c r="AD11" t="n">
-        <v>4036627.755729303</v>
+        <v>4160676.859615495</v>
       </c>
       <c r="AE11" t="n">
-        <v>5523092.178837232</v>
+        <v>5692821.635434553</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.665693793960302e-07</v>
+        <v>1.473110511892837e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>24</v>
+        <v>23.56944444444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>4995976.012997357</v>
+        <v>5149506.728473811</v>
       </c>
     </row>
     <row r="12">
@@ -14320,28 +14320,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3924.616053281909</v>
+        <v>4048.49456496751</v>
       </c>
       <c r="AB12" t="n">
-        <v>5369.832825941148</v>
+        <v>5539.328870763622</v>
       </c>
       <c r="AC12" t="n">
-        <v>4857.343517640828</v>
+        <v>5010.663097834631</v>
       </c>
       <c r="AD12" t="n">
-        <v>3924616.053281909</v>
+        <v>4048494.56496751</v>
       </c>
       <c r="AE12" t="n">
-        <v>5369832.825941148</v>
+        <v>5539328.870763622</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.721573034444009e-07</v>
+        <v>1.482609612427697e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>23.41805555555556</v>
       </c>
       <c r="AH12" t="n">
-        <v>4857343.517640828</v>
+        <v>5010663.097834631</v>
       </c>
     </row>
     <row r="13">
@@ -14426,28 +14426,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3896.849023155868</v>
+        <v>4020.727534841469</v>
       </c>
       <c r="AB13" t="n">
-        <v>5331.840750327783</v>
+        <v>5501.336795150256</v>
       </c>
       <c r="AC13" t="n">
-        <v>4822.97735240179</v>
+        <v>4976.296932595594</v>
       </c>
       <c r="AD13" t="n">
-        <v>3896849.023155868</v>
+        <v>4020727.534841469</v>
       </c>
       <c r="AE13" t="n">
-        <v>5331840.750327783</v>
+        <v>5501336.795150256</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.74363062937179e-07</v>
+        <v>1.486359257375668e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>23.35833333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>4822977.35240179</v>
+        <v>4976296.932595594</v>
       </c>
     </row>
     <row r="14">
@@ -14532,28 +14532,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>3908.381872432373</v>
+        <v>4032.260384117973</v>
       </c>
       <c r="AB14" t="n">
-        <v>5347.6205035013</v>
+        <v>5517.116548323773</v>
       </c>
       <c r="AC14" t="n">
-        <v>4837.251108079448</v>
+        <v>4990.570688273253</v>
       </c>
       <c r="AD14" t="n">
-        <v>3908381.872432373</v>
+        <v>4032260.384117973</v>
       </c>
       <c r="AE14" t="n">
-        <v>5347620.5035013</v>
+        <v>5517116.548323773</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.740689616714753e-07</v>
+        <v>1.485859304715938e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>24</v>
+        <v>23.36388888888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>4837251.108079448</v>
+        <v>4990570.688273253</v>
       </c>
     </row>
   </sheetData>
@@ -14829,28 +14829,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8495.626518503706</v>
+        <v>8687.618853526194</v>
       </c>
       <c r="AB2" t="n">
-        <v>11624.09100320734</v>
+        <v>11886.78338608915</v>
       </c>
       <c r="AC2" t="n">
-        <v>10514.70407237497</v>
+        <v>10752.32546292562</v>
       </c>
       <c r="AD2" t="n">
-        <v>8495626.518503707</v>
+        <v>8687618.853526194</v>
       </c>
       <c r="AE2" t="n">
-        <v>11624091.00320734</v>
+        <v>11886783.38608915</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.623700381108715e-07</v>
+        <v>1.014086257927365e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.28888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>10514704.07237497</v>
+        <v>10752325.46292562</v>
       </c>
     </row>
     <row r="3">
@@ -14935,28 +14935,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4653.918589910692</v>
+        <v>4788.347387620828</v>
       </c>
       <c r="AB3" t="n">
-        <v>6367.696731113858</v>
+        <v>6551.628142720872</v>
       </c>
       <c r="AC3" t="n">
-        <v>5759.972692214604</v>
+        <v>5926.349948047194</v>
       </c>
       <c r="AD3" t="n">
-        <v>4653918.589910693</v>
+        <v>4788347.387620828</v>
       </c>
       <c r="AE3" t="n">
-        <v>6367696.731113858</v>
+        <v>6551628.142720873</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.831818097934428e-07</v>
+        <v>1.412262135155989e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.21111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>5759972.692214604</v>
+        <v>5926349.948047194</v>
       </c>
     </row>
     <row r="4">
@@ -15041,28 +15041,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3833.898075314411</v>
+        <v>3958.803978009412</v>
       </c>
       <c r="AB4" t="n">
-        <v>5245.708486291282</v>
+        <v>5416.610252818113</v>
       </c>
       <c r="AC4" t="n">
-        <v>4745.065430757544</v>
+        <v>4899.656572549182</v>
       </c>
       <c r="AD4" t="n">
-        <v>3833898.07531441</v>
+        <v>3958803.978009412</v>
       </c>
       <c r="AE4" t="n">
-        <v>5245708.486291282</v>
+        <v>5416610.252818112</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.611340923038607e-07</v>
+        <v>1.55282854714592e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.65694444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>4745065.430757544</v>
+        <v>4899656.572549182</v>
       </c>
     </row>
     <row r="5">
@@ -15147,28 +15147,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3411.545571111519</v>
+        <v>3536.195540751357</v>
       </c>
       <c r="AB5" t="n">
-        <v>4667.82715716341</v>
+        <v>4838.378744793195</v>
       </c>
       <c r="AC5" t="n">
-        <v>4222.336284620119</v>
+        <v>4376.610668097168</v>
       </c>
       <c r="AD5" t="n">
-        <v>3411545.571111519</v>
+        <v>3536195.540751357</v>
       </c>
       <c r="AE5" t="n">
-        <v>4667827.15716341</v>
+        <v>4838378.744793194</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.018601827582829e-07</v>
+        <v>1.626267325654946e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>4222336.284620119</v>
+        <v>4376610.668097168</v>
       </c>
     </row>
     <row r="6">
@@ -15253,28 +15253,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3161.148698258256</v>
+        <v>3285.883919244115</v>
       </c>
       <c r="AB6" t="n">
-        <v>4325.223108995165</v>
+        <v>4495.891341277599</v>
       </c>
       <c r="AC6" t="n">
-        <v>3912.429885961263</v>
+        <v>4066.809781689023</v>
       </c>
       <c r="AD6" t="n">
-        <v>3161148.698258256</v>
+        <v>3285883.919244115</v>
       </c>
       <c r="AE6" t="n">
-        <v>4325223.108995165</v>
+        <v>4495891.341277599</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.228595731488445e-07</v>
+        <v>1.664134195823662e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.94027777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>3912429.885961263</v>
+        <v>4066809.781689023</v>
       </c>
     </row>
     <row r="7">
@@ -15359,28 +15359,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3146.112392637355</v>
+        <v>3270.847613623214</v>
       </c>
       <c r="AB7" t="n">
-        <v>4304.64977228966</v>
+        <v>4475.318004572095</v>
       </c>
       <c r="AC7" t="n">
-        <v>3893.820039636073</v>
+        <v>4048.199935363834</v>
       </c>
       <c r="AD7" t="n">
-        <v>3146112.392637355</v>
+        <v>3270847.613623214</v>
       </c>
       <c r="AE7" t="n">
-        <v>4304649.77228966</v>
+        <v>4475318.004572094</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.252458675114084e-07</v>
+        <v>1.668437249251925e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.88194444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>3893820.039636073</v>
+        <v>4048199.935363834</v>
       </c>
     </row>
     <row r="8">
@@ -15465,28 +15465,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3165.559721876637</v>
+        <v>3290.294942862497</v>
       </c>
       <c r="AB8" t="n">
-        <v>4331.258466110462</v>
+        <v>4501.926698392896</v>
       </c>
       <c r="AC8" t="n">
-        <v>3917.889237064153</v>
+        <v>4072.269132791914</v>
       </c>
       <c r="AD8" t="n">
-        <v>3165559.721876638</v>
+        <v>3290294.942862497</v>
       </c>
       <c r="AE8" t="n">
-        <v>4331258.466110462</v>
+        <v>4501926.698392897</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.252458675114084e-07</v>
+        <v>1.668437249251925e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.88194444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>3917889.237064153</v>
+        <v>4072269.132791914</v>
       </c>
     </row>
   </sheetData>
@@ -15762,28 +15762,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5687.995842049896</v>
+        <v>5854.356129331325</v>
       </c>
       <c r="AB2" t="n">
-        <v>7782.566847759444</v>
+        <v>8010.1883321158</v>
       </c>
       <c r="AC2" t="n">
-        <v>7039.809590710161</v>
+        <v>7245.7072000683</v>
       </c>
       <c r="AD2" t="n">
-        <v>5687995.842049896</v>
+        <v>5854356.129331325</v>
       </c>
       <c r="AE2" t="n">
-        <v>7782566.847759444</v>
+        <v>8010188.3321158</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.779408012459879e-07</v>
+        <v>1.264820836271176e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.95</v>
       </c>
       <c r="AH2" t="n">
-        <v>7039809.59071016</v>
+        <v>7245707.200068301</v>
       </c>
     </row>
     <row r="3">
@@ -15868,28 +15868,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3499.976042349197</v>
+        <v>3629.244196286701</v>
       </c>
       <c r="AB3" t="n">
-        <v>4788.821629187861</v>
+        <v>4965.692020313623</v>
       </c>
       <c r="AC3" t="n">
-        <v>4331.78321405136</v>
+        <v>4491.773343287226</v>
       </c>
       <c r="AD3" t="n">
-        <v>3499976.042349197</v>
+        <v>3629244.196286701</v>
       </c>
       <c r="AE3" t="n">
-        <v>4788821.629187861</v>
+        <v>4965692.020313623</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.713304162677596e-07</v>
+        <v>1.625624042315777e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.4125</v>
       </c>
       <c r="AH3" t="n">
-        <v>4331783.21405136</v>
+        <v>4491773.343287226</v>
       </c>
     </row>
     <row r="4">
@@ -15974,28 +15974,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2919.017844662931</v>
+        <v>3039.20487030155</v>
       </c>
       <c r="AB4" t="n">
-        <v>3993.928993046663</v>
+        <v>4158.374183802786</v>
       </c>
       <c r="AC4" t="n">
-        <v>3612.754015464686</v>
+        <v>3761.504788015314</v>
       </c>
       <c r="AD4" t="n">
-        <v>2919017.844662931</v>
+        <v>3039204.87030155</v>
       </c>
       <c r="AE4" t="n">
-        <v>3993928.993046663</v>
+        <v>4158374.183802787</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.364564819948859e-07</v>
+        <v>1.747128463888637e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.57777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>3612754.015464686</v>
+        <v>3761504.788015314</v>
       </c>
     </row>
     <row r="5">
@@ -16080,28 +16080,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2852.190745707029</v>
+        <v>2963.126140354723</v>
       </c>
       <c r="AB5" t="n">
-        <v>3902.493208051661</v>
+        <v>4054.279909132847</v>
       </c>
       <c r="AC5" t="n">
-        <v>3530.04473345868</v>
+        <v>3667.345124822645</v>
       </c>
       <c r="AD5" t="n">
-        <v>2852190.745707029</v>
+        <v>2963126.140354723</v>
       </c>
       <c r="AE5" t="n">
-        <v>3902493.208051661</v>
+        <v>4054279.909132847</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.449079561732152e-07</v>
+        <v>1.762896213253054e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.35694444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>3530044.73345868</v>
+        <v>3667345.124822645</v>
       </c>
     </row>
   </sheetData>
@@ -29470,28 +29470,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4136.082542638357</v>
+        <v>4279.466364127668</v>
       </c>
       <c r="AB2" t="n">
-        <v>5659.170605921742</v>
+        <v>5855.354676131193</v>
       </c>
       <c r="AC2" t="n">
-        <v>5119.067305988188</v>
+        <v>5296.527843882912</v>
       </c>
       <c r="AD2" t="n">
-        <v>4136082.542638357</v>
+        <v>4279466.364127669</v>
       </c>
       <c r="AE2" t="n">
-        <v>5659170.605921743</v>
+        <v>5855354.676131193</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.750111771787503e-07</v>
+        <v>1.490375233925238e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.72083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>5119067.305988188</v>
+        <v>5296527.843882912</v>
       </c>
     </row>
     <row r="3">
@@ -29576,28 +29576,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2717.501014093862</v>
+        <v>2833.899116297675</v>
       </c>
       <c r="AB3" t="n">
-        <v>3718.204775166928</v>
+        <v>3877.465793724045</v>
       </c>
       <c r="AC3" t="n">
-        <v>3363.344529958033</v>
+        <v>3507.405900428297</v>
       </c>
       <c r="AD3" t="n">
-        <v>2717501.014093862</v>
+        <v>2833899.116297675</v>
       </c>
       <c r="AE3" t="n">
-        <v>3718204.775166928</v>
+        <v>3877465.793724045</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.421502830733049e-07</v>
+        <v>1.81178993268151e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.27222222222223</v>
       </c>
       <c r="AH3" t="n">
-        <v>3363344.529958033</v>
+        <v>3507405.900428297</v>
       </c>
     </row>
     <row r="4">
@@ -29682,28 +29682,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2636.314687944557</v>
+        <v>2752.79804149439</v>
       </c>
       <c r="AB4" t="n">
-        <v>3607.122062041515</v>
+        <v>3766.499725251281</v>
       </c>
       <c r="AC4" t="n">
-        <v>3262.863395067747</v>
+        <v>3407.030277788721</v>
       </c>
       <c r="AD4" t="n">
-        <v>2636314.687944557</v>
+        <v>2752798.04149439</v>
       </c>
       <c r="AE4" t="n">
-        <v>3607122.062041515</v>
+        <v>3766499.725251281</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.538071643049251e-07</v>
+        <v>1.834206547569127e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.9625</v>
       </c>
       <c r="AH4" t="n">
-        <v>3262863.395067747</v>
+        <v>3407030.277788721</v>
       </c>
     </row>
   </sheetData>
@@ -29979,28 +29979,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2266.346150590096</v>
+        <v>2383.804492890941</v>
       </c>
       <c r="AB2" t="n">
-        <v>3100.914787373185</v>
+        <v>3261.626473205552</v>
       </c>
       <c r="AC2" t="n">
-        <v>2804.96783222741</v>
+        <v>2950.341420324197</v>
       </c>
       <c r="AD2" t="n">
-        <v>2266346.150590097</v>
+        <v>2383804.492890941</v>
       </c>
       <c r="AE2" t="n">
-        <v>3100914.787373185</v>
+        <v>3261626.473205552</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.302586084956659e-07</v>
+        <v>1.918750774575009e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.46944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>2804967.83222741</v>
+        <v>2950341.420324198</v>
       </c>
     </row>
     <row r="3">
@@ -30085,28 +30085,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2296.968951600993</v>
+        <v>2414.427293901838</v>
       </c>
       <c r="AB3" t="n">
-        <v>3142.814254698929</v>
+        <v>3303.525940531297</v>
       </c>
       <c r="AC3" t="n">
-        <v>2842.868473197855</v>
+        <v>2988.242061294642</v>
       </c>
       <c r="AD3" t="n">
-        <v>2296968.951600993</v>
+        <v>2414427.293901838</v>
       </c>
       <c r="AE3" t="n">
-        <v>3142814.254698929</v>
+        <v>3303525.940531297</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.308105815624156e-07</v>
+        <v>1.919889273847898e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.45416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2842868.473197855</v>
+        <v>2988242.061294642</v>
       </c>
     </row>
   </sheetData>
@@ -30382,28 +30382,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>12252.20203732228</v>
+        <v>12489.87677889764</v>
       </c>
       <c r="AB2" t="n">
-        <v>16764.00335647057</v>
+        <v>17089.20042336356</v>
       </c>
       <c r="AC2" t="n">
-        <v>15164.07040455487</v>
+        <v>15458.23111980053</v>
       </c>
       <c r="AD2" t="n">
-        <v>12252202.03732228</v>
+        <v>12489876.77889764</v>
       </c>
       <c r="AE2" t="n">
-        <v>16764003.35647057</v>
+        <v>17089200.42336356</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.676101243010886e-07</v>
+        <v>8.215725422177013e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.70138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>15164070.40455487</v>
+        <v>15458231.11980053</v>
       </c>
     </row>
     <row r="3">
@@ -30488,28 +30488,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5836.947530781495</v>
+        <v>5985.515668988285</v>
       </c>
       <c r="AB3" t="n">
-        <v>7986.369119566756</v>
+        <v>8189.646600624972</v>
       </c>
       <c r="AC3" t="n">
-        <v>7224.161259734461</v>
+        <v>7408.03822330221</v>
       </c>
       <c r="AD3" t="n">
-        <v>5836947.530781494</v>
+        <v>5985515.668988286</v>
       </c>
       <c r="AE3" t="n">
-        <v>7986369.119566756</v>
+        <v>8189646.600624972</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.110320448816487e-07</v>
+        <v>1.249255254224415e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.05416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>7224161.259734461</v>
+        <v>7408038.22330221</v>
       </c>
     </row>
     <row r="4">
@@ -30594,28 +30594,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4712.001504877546</v>
+        <v>4850.659327605597</v>
       </c>
       <c r="AB4" t="n">
-        <v>6447.16833780887</v>
+        <v>6636.886088016814</v>
       </c>
       <c r="AC4" t="n">
-        <v>5831.85964030574</v>
+        <v>6003.470994704366</v>
       </c>
       <c r="AD4" t="n">
-        <v>4712001.504877546</v>
+        <v>4850659.327605598</v>
       </c>
       <c r="AE4" t="n">
-        <v>6447168.33780887</v>
+        <v>6636886.088016814</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.979684450889915e-07</v>
+        <v>1.401999079941099e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.77916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>5831859.64030574</v>
+        <v>6003470.994704366</v>
       </c>
     </row>
     <row r="5">
@@ -30700,28 +30700,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4205.531191666887</v>
+        <v>4334.193537078731</v>
       </c>
       <c r="AB5" t="n">
-        <v>5754.193311380741</v>
+        <v>5930.23480855531</v>
       </c>
       <c r="AC5" t="n">
-        <v>5205.021177803381</v>
+        <v>5364.261521563396</v>
       </c>
       <c r="AD5" t="n">
-        <v>4205531.191666887</v>
+        <v>4334193.537078731</v>
       </c>
       <c r="AE5" t="n">
-        <v>5754193.311380741</v>
+        <v>5930234.808555311</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.435138866135464e-07</v>
+        <v>1.482020624033379e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.33333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>5205021.17780338</v>
+        <v>5364261.521563396</v>
       </c>
     </row>
     <row r="6">
@@ -30806,28 +30806,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3879.583183990679</v>
+        <v>4008.330780748543</v>
       </c>
       <c r="AB6" t="n">
-        <v>5308.216867466906</v>
+        <v>5484.375009294124</v>
       </c>
       <c r="AC6" t="n">
-        <v>4801.608099764828</v>
+        <v>4960.953955775555</v>
       </c>
       <c r="AD6" t="n">
-        <v>3879583.183990679</v>
+        <v>4008330.780748543</v>
       </c>
       <c r="AE6" t="n">
-        <v>5308216.867466905</v>
+        <v>5484375.009294123</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.718259178315129e-07</v>
+        <v>1.531763746036688e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.51388888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>4801608.099764828</v>
+        <v>4960953.955775555</v>
       </c>
     </row>
     <row r="7">
@@ -30912,28 +30912,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3624.155731927</v>
+        <v>3752.817987830293</v>
       </c>
       <c r="AB7" t="n">
-        <v>4958.729758889476</v>
+        <v>5134.771133594498</v>
       </c>
       <c r="AC7" t="n">
-        <v>4485.475550321806</v>
+        <v>4644.715783300594</v>
       </c>
       <c r="AD7" t="n">
-        <v>3624155.731927</v>
+        <v>3752817.987830293</v>
       </c>
       <c r="AE7" t="n">
-        <v>4958729.758889476</v>
+        <v>5134771.133594498</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.909057649566643e-07</v>
+        <v>1.565286284778049e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.98611111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>4485475.550321805</v>
+        <v>4644715.783300594</v>
       </c>
     </row>
     <row r="8">
@@ -31018,28 +31018,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3445.22763388276</v>
+        <v>3564.150345525009</v>
       </c>
       <c r="AB8" t="n">
-        <v>4713.912441394761</v>
+        <v>4876.627741963453</v>
       </c>
       <c r="AC8" t="n">
-        <v>4264.023254005531</v>
+        <v>4411.209234660299</v>
       </c>
       <c r="AD8" t="n">
-        <v>3445227.63388276</v>
+        <v>3564150.345525009</v>
       </c>
       <c r="AE8" t="n">
-        <v>4713912.441394761</v>
+        <v>4876627.741963454</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.032153437470845e-07</v>
+        <v>1.586913729127314e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.65972222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>4264023.254005531</v>
+        <v>4411209.234660299</v>
       </c>
     </row>
     <row r="9">
@@ -31124,28 +31124,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3424.132986980857</v>
+        <v>3543.055698623106</v>
       </c>
       <c r="AB9" t="n">
-        <v>4685.049814873435</v>
+        <v>4847.765115442127</v>
       </c>
       <c r="AC9" t="n">
-        <v>4237.91523605045</v>
+        <v>4385.101216705219</v>
       </c>
       <c r="AD9" t="n">
-        <v>3424132.986980857</v>
+        <v>3543055.698623106</v>
       </c>
       <c r="AE9" t="n">
-        <v>4685049.814873435</v>
+        <v>4847765.115442127</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.055233897702884e-07</v>
+        <v>1.590968874942801e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.60277777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>4237915.23605045</v>
+        <v>4385101.216705219</v>
       </c>
     </row>
     <row r="10">
@@ -31230,28 +31230,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3443.235396007142</v>
+        <v>3562.158107649391</v>
       </c>
       <c r="AB10" t="n">
-        <v>4711.186573642008</v>
+        <v>4873.9018742107</v>
       </c>
       <c r="AC10" t="n">
-        <v>4261.557539245321</v>
+        <v>4408.743519900091</v>
       </c>
       <c r="AD10" t="n">
-        <v>3443235.396007142</v>
+        <v>3562158.107649391</v>
       </c>
       <c r="AE10" t="n">
-        <v>4711186.573642008</v>
+        <v>4873901.8742107</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.053695200354081e-07</v>
+        <v>1.590698531888435e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23.60277777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>4261557.539245321</v>
+        <v>4408743.519900091</v>
       </c>
     </row>
   </sheetData>
@@ -31527,28 +31527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>20024.42057536332</v>
+        <v>20321.72927956278</v>
       </c>
       <c r="AB2" t="n">
-        <v>27398.29564630132</v>
+        <v>27805.08653172137</v>
       </c>
       <c r="AC2" t="n">
-        <v>24783.44076356662</v>
+        <v>25151.40809781675</v>
       </c>
       <c r="AD2" t="n">
-        <v>20024420.57536332</v>
+        <v>20321729.27956278</v>
       </c>
       <c r="AE2" t="n">
-        <v>27398295.64630132</v>
+        <v>27805086.53172137</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.610466370703569e-07</v>
+        <v>6.1734951348818e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>58</v>
+        <v>57.04861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>24783440.76356662</v>
+        <v>25151408.09781675</v>
       </c>
     </row>
     <row r="3">
@@ -31633,28 +31633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>7588.345162218858</v>
+        <v>7762.644236495351</v>
       </c>
       <c r="AB3" t="n">
-        <v>10382.70862510982</v>
+        <v>10621.19230806739</v>
       </c>
       <c r="AC3" t="n">
-        <v>9391.797486152023</v>
+        <v>9607.520621122063</v>
       </c>
       <c r="AD3" t="n">
-        <v>7588345.162218858</v>
+        <v>7762644.23649535</v>
       </c>
       <c r="AE3" t="n">
-        <v>10382708.62510982</v>
+        <v>10621192.30806739</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.283842496526376e-07</v>
+        <v>1.074467038259921e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.77222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>9391797.486152023</v>
+        <v>9607520.621122062</v>
       </c>
     </row>
     <row r="4">
@@ -31739,28 +31739,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>5911.482741858669</v>
+        <v>6055.008185326466</v>
       </c>
       <c r="AB4" t="n">
-        <v>8088.351483623991</v>
+        <v>8284.729327272327</v>
       </c>
       <c r="AC4" t="n">
-        <v>7316.410570099218</v>
+        <v>7494.046387967783</v>
       </c>
       <c r="AD4" t="n">
-        <v>5911482.74185867</v>
+        <v>6055008.185326466</v>
       </c>
       <c r="AE4" t="n">
-        <v>8088351.483623991</v>
+        <v>8284729.327272327</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.262449397825907e-07</v>
+        <v>1.241797912552405e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.35555555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>7316410.570099218</v>
+        <v>7494046.387967783</v>
       </c>
     </row>
     <row r="5">
@@ -31845,28 +31845,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>5216.108054788056</v>
+        <v>5359.46281654671</v>
       </c>
       <c r="AB5" t="n">
-        <v>7136.909159007859</v>
+        <v>7333.053468411798</v>
       </c>
       <c r="AC5" t="n">
-        <v>6455.772565586795</v>
+        <v>6633.197137391482</v>
       </c>
       <c r="AD5" t="n">
-        <v>5216108.054788056</v>
+        <v>5359462.81654671</v>
       </c>
       <c r="AE5" t="n">
-        <v>7136909.159007858</v>
+        <v>7333053.468411799</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.778442127602021e-07</v>
+        <v>1.330026918997533e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.47638888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>6455772.565586795</v>
+        <v>6633197.137391482</v>
       </c>
     </row>
     <row r="6">
@@ -31951,28 +31951,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4811.095967547029</v>
+        <v>4944.278163387839</v>
       </c>
       <c r="AB6" t="n">
-        <v>6582.753753372416</v>
+        <v>6764.979509305626</v>
       </c>
       <c r="AC6" t="n">
-        <v>5954.504974103223</v>
+        <v>6119.339359645615</v>
       </c>
       <c r="AD6" t="n">
-        <v>4811095.967547029</v>
+        <v>4944278.16338784</v>
       </c>
       <c r="AE6" t="n">
-        <v>6582753.753372416</v>
+        <v>6764979.509305626</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.103161690305957e-07</v>
+        <v>1.385550345467312e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.41527777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>5954504.974103223</v>
+        <v>6119339.359645615</v>
       </c>
     </row>
     <row r="7">
@@ -32057,28 +32057,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4533.627904955898</v>
+        <v>4666.895352142731</v>
       </c>
       <c r="AB7" t="n">
-        <v>6203.109709108217</v>
+        <v>6385.452109694075</v>
       </c>
       <c r="AC7" t="n">
-        <v>5611.09362458985</v>
+        <v>5776.033522382956</v>
       </c>
       <c r="AD7" t="n">
-        <v>4533627.904955898</v>
+        <v>4666895.352142731</v>
       </c>
       <c r="AE7" t="n">
-        <v>6203109.709108217</v>
+        <v>6385452.109694075</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.319641398775247e-07</v>
+        <v>1.422565963113831e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.75277777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>5611093.62458985</v>
+        <v>5776033.522382956</v>
       </c>
     </row>
     <row r="8">
@@ -32163,28 +32163,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>4318.809355104042</v>
+        <v>4441.818985027008</v>
       </c>
       <c r="AB8" t="n">
-        <v>5909.185492075331</v>
+        <v>6077.492694537812</v>
       </c>
       <c r="AC8" t="n">
-        <v>5345.221122305366</v>
+        <v>5497.465321585462</v>
       </c>
       <c r="AD8" t="n">
-        <v>4318809.355104042</v>
+        <v>4441818.985027009</v>
       </c>
       <c r="AE8" t="n">
-        <v>5909185.492075332</v>
+        <v>6077492.694537812</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.484225286721077e-07</v>
+        <v>1.450707973790294e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.27222222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>5345221.122305366</v>
+        <v>5497465.321585462</v>
       </c>
     </row>
     <row r="9">
@@ -32269,28 +32269,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>4133.718125871999</v>
+        <v>4266.90023220426</v>
       </c>
       <c r="AB9" t="n">
-        <v>5655.935506591306</v>
+        <v>5838.161140054967</v>
       </c>
       <c r="AC9" t="n">
-        <v>5116.140959997358</v>
+        <v>5280.975234758524</v>
       </c>
       <c r="AD9" t="n">
-        <v>4133718.125872</v>
+        <v>4266900.232204259</v>
       </c>
       <c r="AE9" t="n">
-        <v>5655935.506591306</v>
+        <v>5838161.140054967</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.604327042789656e-07</v>
+        <v>1.471244035635281e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.93194444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>5116140.959997358</v>
+        <v>5280975.234758524</v>
       </c>
     </row>
     <row r="10">
@@ -32375,28 +32375,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3971.467977551975</v>
+        <v>4094.562858820962</v>
       </c>
       <c r="AB10" t="n">
-        <v>5433.937695688476</v>
+        <v>5602.361542803606</v>
       </c>
       <c r="AC10" t="n">
-        <v>4915.330308591217</v>
+        <v>5067.680020122027</v>
       </c>
       <c r="AD10" t="n">
-        <v>3971467.977551975</v>
+        <v>4094562.858820962</v>
       </c>
       <c r="AE10" t="n">
-        <v>5433937.695688476</v>
+        <v>5602361.542803605</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.70367047064885e-07</v>
+        <v>1.488230654692245e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23.65972222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>4915330.308591217</v>
+        <v>5067680.020122027</v>
       </c>
     </row>
     <row r="11">
@@ -32481,28 +32481,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3841.837270015214</v>
+        <v>3964.761559083609</v>
       </c>
       <c r="AB11" t="n">
-        <v>5256.571242733472</v>
+        <v>5424.761678073754</v>
       </c>
       <c r="AC11" t="n">
-        <v>4754.891460970867</v>
+        <v>4907.030037219025</v>
       </c>
       <c r="AD11" t="n">
-        <v>3841837.270015214</v>
+        <v>3964761.559083609</v>
       </c>
       <c r="AE11" t="n">
-        <v>5256571.242733472</v>
+        <v>5424761.678073755</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.77187640619397e-07</v>
+        <v>1.499893109567176e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>24</v>
+        <v>23.475</v>
       </c>
       <c r="AH11" t="n">
-        <v>4754891.460970867</v>
+        <v>4907030.037219025</v>
       </c>
     </row>
     <row r="12">
@@ -32587,28 +32587,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3792.485637265012</v>
+        <v>3915.409926333407</v>
       </c>
       <c r="AB12" t="n">
-        <v>5189.046161564268</v>
+        <v>5357.236596904549</v>
       </c>
       <c r="AC12" t="n">
-        <v>4693.810878776407</v>
+        <v>4845.949455024564</v>
       </c>
       <c r="AD12" t="n">
-        <v>3792485.637265012</v>
+        <v>3915409.926333407</v>
       </c>
       <c r="AE12" t="n">
-        <v>5189046.161564268</v>
+        <v>5357236.596904549</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.801531160778804e-07</v>
+        <v>1.504963742121494e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>23.39722222222223</v>
       </c>
       <c r="AH12" t="n">
-        <v>4693810.878776407</v>
+        <v>4845949.455024565</v>
       </c>
     </row>
     <row r="13">
@@ -32693,28 +32693,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3810.560812141108</v>
+        <v>3933.485101209503</v>
       </c>
       <c r="AB13" t="n">
-        <v>5213.77741325018</v>
+        <v>5381.967848590462</v>
       </c>
       <c r="AC13" t="n">
-        <v>4716.181814511943</v>
+        <v>4868.320390760101</v>
       </c>
       <c r="AD13" t="n">
-        <v>3810560.812141108</v>
+        <v>3933485.101209503</v>
       </c>
       <c r="AE13" t="n">
-        <v>5213777.41325018</v>
+        <v>5381967.848590462</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.800048423049562e-07</v>
+        <v>1.504710210493778e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>23.40138888888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>4716181.814511944</v>
+        <v>4868320.390760101</v>
       </c>
     </row>
   </sheetData>
@@ -32990,28 +32990,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2138.288189668112</v>
+        <v>2260.271865323303</v>
       </c>
       <c r="AB2" t="n">
-        <v>2925.700235721036</v>
+        <v>3092.603682292605</v>
       </c>
       <c r="AC2" t="n">
-        <v>2646.475511469891</v>
+        <v>2797.449927351011</v>
       </c>
       <c r="AD2" t="n">
-        <v>2138288.189668112</v>
+        <v>2260271.865323303</v>
       </c>
       <c r="AE2" t="n">
-        <v>2925700.235721036</v>
+        <v>3092603.682292605</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.771684079993637e-07</v>
+        <v>1.880175913744419e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.16527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>2646475.51146989</v>
+        <v>2797449.927351011</v>
       </c>
     </row>
   </sheetData>
@@ -33287,28 +33287,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6546.287240405122</v>
+        <v>6715.095631956551</v>
       </c>
       <c r="AB2" t="n">
-        <v>8956.919004133239</v>
+        <v>9187.890092754549</v>
       </c>
       <c r="AC2" t="n">
-        <v>8102.083225493199</v>
+        <v>8311.010757586442</v>
       </c>
       <c r="AD2" t="n">
-        <v>6546287.240405122</v>
+        <v>6715095.631956551</v>
       </c>
       <c r="AE2" t="n">
-        <v>8956919.004133239</v>
+        <v>9187890.092754548</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.363791049429565e-07</v>
+        <v>1.172485567607283e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.63611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>8102083.225493199</v>
+        <v>8311010.757586442</v>
       </c>
     </row>
     <row r="3">
@@ -33393,28 +33393,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3894.455218895434</v>
+        <v>4016.372480080017</v>
       </c>
       <c r="AB3" t="n">
-        <v>5328.565441731467</v>
+        <v>5495.378017094183</v>
       </c>
       <c r="AC3" t="n">
-        <v>4820.014634660982</v>
+        <v>4970.906851953994</v>
       </c>
       <c r="AD3" t="n">
-        <v>3894455.218895434</v>
+        <v>4016372.480080017</v>
       </c>
       <c r="AE3" t="n">
-        <v>5328565.441731467</v>
+        <v>5495378.017094183</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.391973878116125e-07</v>
+        <v>1.546164570678426e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.02638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>4820014.634660982</v>
+        <v>4970906.851953994</v>
       </c>
     </row>
     <row r="4">
@@ -33499,28 +33499,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3216.490825073003</v>
+        <v>3338.322655894464</v>
       </c>
       <c r="AB4" t="n">
-        <v>4400.944648425429</v>
+        <v>4567.640334196398</v>
       </c>
       <c r="AC4" t="n">
-        <v>3980.924667944147</v>
+        <v>4131.711151423994</v>
       </c>
       <c r="AD4" t="n">
-        <v>3216490.825073003</v>
+        <v>3338322.655894464</v>
       </c>
       <c r="AE4" t="n">
-        <v>4400944.648425428</v>
+        <v>4567640.334196398</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.107226759730224e-07</v>
+        <v>1.677945088669699e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.90277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>3980924.667944147</v>
+        <v>4131711.151423994</v>
       </c>
     </row>
     <row r="5">
@@ -33605,28 +33605,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2952.453504214222</v>
+        <v>3064.907180569155</v>
       </c>
       <c r="AB5" t="n">
-        <v>4039.677137521936</v>
+        <v>4193.541218616828</v>
       </c>
       <c r="AC5" t="n">
-        <v>3654.136021239163</v>
+        <v>3793.315530383945</v>
       </c>
       <c r="AD5" t="n">
-        <v>2952453.504214222</v>
+        <v>3064907.180569155</v>
       </c>
       <c r="AE5" t="n">
-        <v>4039677.137521937</v>
+        <v>4193541.218616828</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.378304335867077e-07</v>
+        <v>1.727889303250866e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.18472222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>3654136.021239163</v>
+        <v>3793315.530383945</v>
       </c>
     </row>
     <row r="6">
@@ -33711,28 +33711,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2961.724657882826</v>
+        <v>3074.178334237758</v>
       </c>
       <c r="AB6" t="n">
-        <v>4052.362338985754</v>
+        <v>4206.226420080644</v>
       </c>
       <c r="AC6" t="n">
-        <v>3665.610564879064</v>
+        <v>3804.790074023847</v>
       </c>
       <c r="AD6" t="n">
-        <v>2961724.657882826</v>
+        <v>3074178.334237758</v>
       </c>
       <c r="AE6" t="n">
-        <v>4052362.338985754</v>
+        <v>4206226.420080644</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.38810232054672e-07</v>
+        <v>1.729694515826089e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.16111111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>3665610.564879064</v>
+        <v>3804790.074023847</v>
       </c>
     </row>
   </sheetData>
@@ -34008,28 +34008,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9611.712904585289</v>
+        <v>9815.531361443645</v>
       </c>
       <c r="AB2" t="n">
-        <v>13151.16963490053</v>
+        <v>13430.04303940986</v>
       </c>
       <c r="AC2" t="n">
-        <v>11896.04046272764</v>
+        <v>12148.29858091187</v>
       </c>
       <c r="AD2" t="n">
-        <v>9611712.904585289</v>
+        <v>9815531.361443646</v>
       </c>
       <c r="AE2" t="n">
-        <v>13151169.63490053</v>
+        <v>13430043.03940986</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.290542230608432e-07</v>
+        <v>9.451167600306668e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.26944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>11896040.46272764</v>
+        <v>12148298.58091187</v>
       </c>
     </row>
     <row r="3">
@@ -34114,28 +34114,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5037.545060473579</v>
+        <v>5183.166183232541</v>
       </c>
       <c r="AB3" t="n">
-        <v>6892.591392543442</v>
+        <v>7091.836637052798</v>
       </c>
       <c r="AC3" t="n">
-        <v>6234.772143851613</v>
+        <v>6415.001701867444</v>
       </c>
       <c r="AD3" t="n">
-        <v>5037545.060473579</v>
+        <v>5183166.183232541</v>
       </c>
       <c r="AE3" t="n">
-        <v>6892591.392543443</v>
+        <v>7091836.637052799</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.574987360199533e-07</v>
+        <v>1.353216210944354e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.825</v>
       </c>
       <c r="AH3" t="n">
-        <v>6234772.143851613</v>
+        <v>6415001.701867444</v>
       </c>
     </row>
     <row r="4">
@@ -34220,28 +34220,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4132.431183006247</v>
+        <v>4258.624866791958</v>
       </c>
       <c r="AB4" t="n">
-        <v>5654.174654586471</v>
+        <v>5826.838420014499</v>
       </c>
       <c r="AC4" t="n">
-        <v>5114.548161236493</v>
+        <v>5270.733139227183</v>
       </c>
       <c r="AD4" t="n">
-        <v>4132431.183006247</v>
+        <v>4258624.866791958</v>
       </c>
       <c r="AE4" t="n">
-        <v>5654174.654586471</v>
+        <v>5826838.420014499</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.390972922661873e-07</v>
+        <v>1.498986076755919e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.025</v>
       </c>
       <c r="AH4" t="n">
-        <v>5114548.161236493</v>
+        <v>5270733.139227183</v>
       </c>
     </row>
     <row r="5">
@@ -34326,28 +34326,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3675.736730322713</v>
+        <v>3801.930324599871</v>
       </c>
       <c r="AB5" t="n">
-        <v>5029.305156487541</v>
+        <v>5201.968799446021</v>
       </c>
       <c r="AC5" t="n">
-        <v>4549.3153310263</v>
+        <v>4705.500198235763</v>
       </c>
       <c r="AD5" t="n">
-        <v>3675736.730322713</v>
+        <v>3801930.324599871</v>
       </c>
       <c r="AE5" t="n">
-        <v>5029305.156487541</v>
+        <v>5201968.799446021</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.815474082324362e-07</v>
+        <v>1.57482011099315e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.77083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>4549315.3310263</v>
+        <v>4705500.198235762</v>
       </c>
     </row>
     <row r="6">
@@ -34432,28 +34432,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3380.345688025211</v>
+        <v>3496.825607570019</v>
       </c>
       <c r="AB6" t="n">
-        <v>4625.138100683023</v>
+        <v>4784.511065335615</v>
       </c>
       <c r="AC6" t="n">
-        <v>4183.721411775755</v>
+        <v>4327.884044363258</v>
       </c>
       <c r="AD6" t="n">
-        <v>3380345.688025211</v>
+        <v>3496825.607570019</v>
       </c>
       <c r="AE6" t="n">
-        <v>4625138.100683023</v>
+        <v>4784511.065335615</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.073319231156392e-07</v>
+        <v>1.62088226512243e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.06666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>4183721.411775755</v>
+        <v>4327884.044363258</v>
       </c>
     </row>
     <row r="7">
@@ -34538,28 +34538,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3234.233042336421</v>
+        <v>3360.341295759009</v>
       </c>
       <c r="AB7" t="n">
-        <v>4425.220332816621</v>
+        <v>4597.767208652905</v>
       </c>
       <c r="AC7" t="n">
-        <v>4002.88351508818</v>
+        <v>4158.962759265703</v>
       </c>
       <c r="AD7" t="n">
-        <v>3234233.042336421</v>
+        <v>3360341.295759009</v>
       </c>
       <c r="AE7" t="n">
-        <v>4425220.33281662</v>
+        <v>4597767.208652904</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.181802860847917e-07</v>
+        <v>1.640262073871945e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.78333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>4002883.51508818</v>
+        <v>4158962.759265703</v>
       </c>
     </row>
     <row r="8">
@@ -34644,28 +34644,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3244.408782108654</v>
+        <v>3370.517035531242</v>
       </c>
       <c r="AB8" t="n">
-        <v>4439.143228894946</v>
+        <v>4611.690104731229</v>
       </c>
       <c r="AC8" t="n">
-        <v>4015.477629505697</v>
+        <v>4171.556873683219</v>
       </c>
       <c r="AD8" t="n">
-        <v>3244408.782108654</v>
+        <v>3370517.035531242</v>
       </c>
       <c r="AE8" t="n">
-        <v>4439143.228894946</v>
+        <v>4611690.104731228</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.188091766916992e-07</v>
+        <v>1.64138554104583e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.76805555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>4015477.629505697</v>
+        <v>4171556.873683219</v>
       </c>
     </row>
   </sheetData>
